--- a/Notebooks/results/G4/G4_effective_drugs_from_expression.xlsx
+++ b/Notebooks/results/G4/G4_effective_drugs_from_expression.xlsx
@@ -37,781 +37,781 @@
     <t>brd-k71781559</t>
   </si>
   <si>
+    <t>gsk-j4</t>
+  </si>
+  <si>
+    <t>lbw242</t>
+  </si>
+  <si>
+    <t>ic-87114</t>
+  </si>
+  <si>
+    <t>brd-k94991378</t>
+  </si>
+  <si>
+    <t>ipa-3</t>
+  </si>
+  <si>
+    <t>way-362450</t>
+  </si>
+  <si>
     <t>azacitidine</t>
   </si>
   <si>
+    <t>trifluoperazine</t>
+  </si>
+  <si>
+    <t>sid 26681509</t>
+  </si>
+  <si>
+    <t>stemregenin 1</t>
+  </si>
+  <si>
+    <t>gsk690693</t>
+  </si>
+  <si>
     <t>gw-2580</t>
   </si>
   <si>
+    <t>brd-k29313308</t>
+  </si>
+  <si>
+    <t>birinapant</t>
+  </si>
+  <si>
     <t>nsc-207895</t>
   </si>
   <si>
+    <t>erismodegib</t>
+  </si>
+  <si>
+    <t>navitoclax</t>
+  </si>
+  <si>
+    <t>ver-155008</t>
+  </si>
+  <si>
+    <t>vx-680</t>
+  </si>
+  <si>
     <t>sb52334</t>
   </si>
   <si>
-    <t>way-362450</t>
-  </si>
-  <si>
-    <t>birinapant</t>
-  </si>
-  <si>
-    <t>lbw242</t>
-  </si>
-  <si>
-    <t>gsk-j4</t>
-  </si>
-  <si>
-    <t>ic-87114</t>
-  </si>
-  <si>
-    <t>brd-k94991378</t>
-  </si>
-  <si>
-    <t>ipa-3</t>
-  </si>
-  <si>
-    <t>erismodegib</t>
-  </si>
-  <si>
-    <t>vx-680</t>
+    <t>ci-976</t>
+  </si>
+  <si>
+    <t>dbeq</t>
+  </si>
+  <si>
+    <t>piperlongumine</t>
+  </si>
+  <si>
+    <t>daporinad</t>
+  </si>
+  <si>
+    <t>etomoxir</t>
+  </si>
+  <si>
+    <t>gsk525762a</t>
+  </si>
+  <si>
+    <t>fsc231</t>
+  </si>
+  <si>
+    <t>sotrastaurin</t>
+  </si>
+  <si>
+    <t>dabrafenib</t>
+  </si>
+  <si>
+    <t>amuvatinib</t>
+  </si>
+  <si>
+    <t>brd-a86708339</t>
+  </si>
+  <si>
+    <t>niclosamide</t>
+  </si>
+  <si>
+    <t>nilotinib</t>
+  </si>
+  <si>
+    <t>pf-4800567 hydrochloride</t>
+  </si>
+  <si>
+    <t>brd8958</t>
+  </si>
+  <si>
+    <t>qs-11</t>
+  </si>
+  <si>
+    <t>kh-cb19</t>
+  </si>
+  <si>
+    <t>pifithrin-mu</t>
+  </si>
+  <si>
+    <t>neuronal differentiation inducer iii</t>
+  </si>
+  <si>
+    <t>brd-k99006945</t>
+  </si>
+  <si>
+    <t>wz3105</t>
+  </si>
+  <si>
+    <t>brd-k51831558</t>
+  </si>
+  <si>
+    <t>rucaparib</t>
+  </si>
+  <si>
+    <t>motesanib</t>
+  </si>
+  <si>
+    <t>compound 1b</t>
+  </si>
+  <si>
+    <t>brd-k85133207</t>
+  </si>
+  <si>
+    <t>compound 1541a</t>
+  </si>
+  <si>
+    <t>bec</t>
+  </si>
+  <si>
+    <t>hbx-41108</t>
+  </si>
+  <si>
+    <t>tivozanib</t>
+  </si>
+  <si>
+    <t>mi-2</t>
+  </si>
+  <si>
+    <t>sch-529074</t>
+  </si>
+  <si>
+    <t>merck60</t>
+  </si>
+  <si>
+    <t>vorinostat</t>
+  </si>
+  <si>
+    <t>sb-743921</t>
+  </si>
+  <si>
+    <t>cbb-1007</t>
+  </si>
+  <si>
+    <t>compound 23 citrate</t>
+  </si>
+  <si>
+    <t>gnf-2</t>
+  </si>
+  <si>
+    <t>austocystin d</t>
+  </si>
+  <si>
+    <t>pd-0332991</t>
+  </si>
+  <si>
+    <t>vu0155056</t>
+  </si>
+  <si>
+    <t>unc1215</t>
+  </si>
+  <si>
+    <t>plx-4720</t>
+  </si>
+  <si>
+    <t>bortezomib</t>
+  </si>
+  <si>
+    <t>belinostat</t>
+  </si>
+  <si>
+    <t>ml312</t>
+  </si>
+  <si>
+    <t>brd-k66532283</t>
+  </si>
+  <si>
+    <t>elesclomol</t>
+  </si>
+  <si>
+    <t>crizotinib</t>
+  </si>
+  <si>
+    <t>cp724714</t>
+  </si>
+  <si>
+    <t>gsk1070916</t>
+  </si>
+  <si>
+    <t>brd-k33199242</t>
+  </si>
+  <si>
+    <t>mg-132</t>
+  </si>
+  <si>
+    <t>brd-k61166597</t>
+  </si>
+  <si>
+    <t>mps-1-in-1</t>
+  </si>
+  <si>
+    <t>brd-k33514849</t>
+  </si>
+  <si>
+    <t>sb-505124</t>
+  </si>
+  <si>
+    <t>ciclopirox</t>
+  </si>
+  <si>
+    <t>ly-2157299</t>
+  </si>
+  <si>
+    <t>tubastatin a</t>
+  </si>
+  <si>
+    <t>lomeguatrib</t>
+  </si>
+  <si>
+    <t>lbh-589</t>
+  </si>
+  <si>
+    <t>brd-a94377914</t>
+  </si>
+  <si>
+    <t>gsk4112</t>
+  </si>
+  <si>
+    <t>ql-x-138</t>
+  </si>
+  <si>
+    <t>brd-k27224038</t>
+  </si>
+  <si>
+    <t>cct036477</t>
+  </si>
+  <si>
+    <t>alvocidib</t>
+  </si>
+  <si>
+    <t>cay10594</t>
+  </si>
+  <si>
+    <t>cr-1-31b</t>
+  </si>
+  <si>
+    <t>plx-4032</t>
+  </si>
+  <si>
+    <t>brd-k96431673</t>
+  </si>
+  <si>
+    <t>tigecycline</t>
+  </si>
+  <si>
+    <t>pi-103</t>
+  </si>
+  <si>
+    <t>pandacostat</t>
+  </si>
+  <si>
+    <t>osi-027</t>
+  </si>
+  <si>
+    <t>mln2480</t>
+  </si>
+  <si>
+    <t>zm447439</t>
+  </si>
+  <si>
+    <t>sr-ii-138a</t>
+  </si>
+  <si>
+    <t>tl-2-105</t>
+  </si>
+  <si>
+    <t>cx-5461</t>
+  </si>
+  <si>
+    <t>cay10576</t>
+  </si>
+  <si>
+    <t>brd-k34485477</t>
   </si>
   <si>
     <t>qw-bi-011</t>
   </si>
   <si>
-    <t>gnf-2</t>
-  </si>
-  <si>
-    <t>amuvatinib</t>
-  </si>
-  <si>
-    <t>pd-0332991</t>
-  </si>
-  <si>
-    <t>trifluoperazine</t>
-  </si>
-  <si>
-    <t>gsk690693</t>
-  </si>
-  <si>
-    <t>qs-11</t>
-  </si>
-  <si>
-    <t>sid 26681509</t>
-  </si>
-  <si>
-    <t>stemregenin 1</t>
-  </si>
-  <si>
-    <t>dabrafenib</t>
-  </si>
-  <si>
-    <t>brd-k33199242</t>
-  </si>
-  <si>
-    <t>nilotinib</t>
-  </si>
-  <si>
-    <t>kh-cb19</t>
-  </si>
-  <si>
-    <t>navitoclax</t>
-  </si>
-  <si>
-    <t>gsk1070916</t>
-  </si>
-  <si>
-    <t>brd-k29313308</t>
+    <t>brd-k27986637</t>
+  </si>
+  <si>
+    <t>fingolimod</t>
+  </si>
+  <si>
+    <t>bcl-lzh-4</t>
+  </si>
+  <si>
+    <t>fmk</t>
+  </si>
+  <si>
+    <t>brd-k48334597</t>
+  </si>
+  <si>
+    <t>brd-k01737880</t>
+  </si>
+  <si>
+    <t>linsitinib</t>
+  </si>
+  <si>
+    <t>brd-k17060750</t>
+  </si>
+  <si>
+    <t>brd-k88742110</t>
+  </si>
+  <si>
+    <t>bardoxolone methyl</t>
+  </si>
+  <si>
+    <t>cucurbitacin i</t>
+  </si>
+  <si>
+    <t>xl765</t>
   </si>
   <si>
     <t>azd6244</t>
   </si>
   <si>
-    <t>brd8958</t>
-  </si>
-  <si>
     <t>gdc-0879</t>
   </si>
   <si>
-    <t>unc1215</t>
-  </si>
-  <si>
-    <t>bec</t>
+    <t>pha-665752</t>
+  </si>
+  <si>
+    <t>obatoclax</t>
+  </si>
+  <si>
+    <t>seliciclib</t>
+  </si>
+  <si>
+    <t>darinaparsin</t>
+  </si>
+  <si>
+    <t>abt-199</t>
+  </si>
+  <si>
+    <t>ipr-456</t>
+  </si>
+  <si>
+    <t>at-406</t>
+  </si>
+  <si>
+    <t>o-6-benzylguanine</t>
+  </si>
+  <si>
+    <t>unc0638</t>
+  </si>
+  <si>
+    <t>brd-k11533227</t>
+  </si>
+  <si>
+    <t>cid-5951923</t>
+  </si>
+  <si>
+    <t>brd-k84807411</t>
+  </si>
+  <si>
+    <t>kin001-244</t>
+  </si>
+  <si>
+    <t>avrainvillamide</t>
+  </si>
+  <si>
+    <t>iox2</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>plx4720</t>
+  </si>
+  <si>
+    <t>fulvestrant</t>
+  </si>
+  <si>
+    <t>nsc23766</t>
+  </si>
+  <si>
+    <t>cerulenin</t>
+  </si>
+  <si>
+    <t>nutlin-3</t>
+  </si>
+  <si>
+    <t>brd-k02251932</t>
+  </si>
+  <si>
+    <t>sb-525334</t>
+  </si>
+  <si>
+    <t>brd6340</t>
+  </si>
+  <si>
+    <t>gmx-1778</t>
+  </si>
+  <si>
+    <t>bx796</t>
+  </si>
+  <si>
+    <t>tgx-221</t>
+  </si>
+  <si>
+    <t>bix-01294</t>
+  </si>
+  <si>
+    <t>nsc-87877</t>
+  </si>
+  <si>
+    <t>gossypol</t>
+  </si>
+  <si>
+    <t>skepinone-l</t>
+  </si>
+  <si>
+    <t>brd-k28456706</t>
+  </si>
+  <si>
+    <t>cyanoquinoline 11</t>
+  </si>
+  <si>
+    <t>oligomycin a</t>
+  </si>
+  <si>
+    <t>pf-543</t>
+  </si>
+  <si>
+    <t>aew541</t>
+  </si>
+  <si>
+    <t>pf-750</t>
+  </si>
+  <si>
+    <t>tgx221</t>
+  </si>
+  <si>
+    <t>16-beta-bromoandrosterone</t>
+  </si>
+  <si>
+    <t>i-bet151</t>
+  </si>
+  <si>
+    <t>bax channel blocker</t>
+  </si>
+  <si>
+    <t>itraconazole</t>
+  </si>
+  <si>
+    <t>vx-702</t>
+  </si>
+  <si>
+    <t>bx-912</t>
+  </si>
+  <si>
+    <t>wz4002</t>
+  </si>
+  <si>
+    <t>myricetin</t>
+  </si>
+  <si>
+    <t>sz4ta2</t>
+  </si>
+  <si>
+    <t>wp1130</t>
+  </si>
+  <si>
+    <t>gsk319347a</t>
+  </si>
+  <si>
+    <t>brd-k45681478</t>
+  </si>
+  <si>
+    <t>xmd13-2</t>
+  </si>
+  <si>
+    <t>talazoparib</t>
+  </si>
+  <si>
+    <t>ym201636</t>
+  </si>
+  <si>
+    <t>ml083</t>
+  </si>
+  <si>
+    <t>nsc19630</t>
+  </si>
+  <si>
+    <t>ciclosporin</t>
+  </si>
+  <si>
+    <t>cay10603</t>
+  </si>
+  <si>
+    <t>cil55</t>
+  </si>
+  <si>
+    <t>brd-k42260513</t>
+  </si>
+  <si>
+    <t>brd-m00053801</t>
+  </si>
+  <si>
+    <t>brd-k86535717</t>
+  </si>
+  <si>
+    <t>pl-di</t>
+  </si>
+  <si>
+    <t>necrosulfonamide</t>
+  </si>
+  <si>
+    <t>gw-405833</t>
+  </si>
+  <si>
+    <t>brd4132</t>
   </si>
   <si>
     <t>ml239</t>
   </si>
   <si>
-    <t>plx-4720</t>
-  </si>
-  <si>
-    <t>plx-4032</t>
-  </si>
-  <si>
-    <t>cay10576</t>
-  </si>
-  <si>
-    <t>brd-k88742110</t>
-  </si>
-  <si>
-    <t>brd-k99006945</t>
-  </si>
-  <si>
-    <t>sotrastaurin</t>
-  </si>
-  <si>
-    <t>vu0155056</t>
-  </si>
-  <si>
-    <t>fsc231</t>
-  </si>
-  <si>
-    <t>austocystin d</t>
-  </si>
-  <si>
-    <t>sch-529074</t>
-  </si>
-  <si>
-    <t>mg-132</t>
-  </si>
-  <si>
-    <t>rucaparib</t>
-  </si>
-  <si>
-    <t>linsitinib</t>
-  </si>
-  <si>
-    <t>tl-2-105</t>
-  </si>
-  <si>
-    <t>fingolimod</t>
-  </si>
-  <si>
-    <t>gsk525762a</t>
-  </si>
-  <si>
-    <t>brd-k48334597</t>
-  </si>
-  <si>
-    <t>obatoclax</t>
-  </si>
-  <si>
-    <t>brd-k33514849</t>
-  </si>
-  <si>
-    <t>bortezomib</t>
-  </si>
-  <si>
-    <t>cbb-1007</t>
-  </si>
-  <si>
-    <t>wz3105</t>
-  </si>
-  <si>
-    <t>brd-a86708339</t>
-  </si>
-  <si>
-    <t>tivozanib</t>
-  </si>
-  <si>
-    <t>brd-k17060750</t>
-  </si>
-  <si>
-    <t>pf-4800567 hydrochloride</t>
-  </si>
-  <si>
-    <t>etomoxir</t>
-  </si>
-  <si>
-    <t>piperlongumine</t>
-  </si>
-  <si>
-    <t>brd-k66532283</t>
-  </si>
-  <si>
-    <t>ql-x-138</t>
-  </si>
-  <si>
-    <t>brd-k01737880</t>
-  </si>
-  <si>
-    <t>cay10594</t>
-  </si>
-  <si>
-    <t>compound 1b</t>
-  </si>
-  <si>
-    <t>mi-2</t>
-  </si>
-  <si>
-    <t>nutlin-3</t>
-  </si>
-  <si>
-    <t>hbx-41108</t>
-  </si>
-  <si>
-    <t>cr-1-31b</t>
-  </si>
-  <si>
-    <t>pifithrin-mu</t>
-  </si>
-  <si>
-    <t>brd-m00053801</t>
-  </si>
-  <si>
-    <t>nsc23766</t>
-  </si>
-  <si>
-    <t>zm447439</t>
-  </si>
-  <si>
-    <t>neuronal differentiation inducer iii</t>
-  </si>
-  <si>
-    <t>brd-k85133207</t>
-  </si>
-  <si>
-    <t>ly-2157299</t>
-  </si>
-  <si>
-    <t>fmk</t>
-  </si>
-  <si>
-    <t>fulvestrant</t>
-  </si>
-  <si>
-    <t>sb-505124</t>
-  </si>
-  <si>
-    <t>merck60</t>
+    <t>genentech cpd 10</t>
+  </si>
+  <si>
+    <t>osi-930</t>
+  </si>
+  <si>
+    <t>dinaciclib</t>
+  </si>
+  <si>
+    <t>azd0530</t>
+  </si>
+  <si>
+    <t>dasatinib</t>
+  </si>
+  <si>
+    <t>vaf-347</t>
   </si>
   <si>
     <t>pd-0325901</t>
   </si>
   <si>
-    <t>pi-103</t>
-  </si>
-  <si>
-    <t>dinaciclib</t>
-  </si>
-  <si>
-    <t>alvocidib</t>
-  </si>
-  <si>
-    <t>tubastatin a</t>
-  </si>
-  <si>
-    <t>brd-k27224038</t>
-  </si>
-  <si>
-    <t>cyanoquinoline 11</t>
-  </si>
-  <si>
-    <t>elesclomol</t>
-  </si>
-  <si>
-    <t>osi-027</t>
-  </si>
-  <si>
-    <t>ml312</t>
-  </si>
-  <si>
-    <t>unc0638</t>
-  </si>
-  <si>
-    <t>brd-k42260513</t>
-  </si>
-  <si>
-    <t>nsc-87877</t>
-  </si>
-  <si>
-    <t>brd-k34485477</t>
-  </si>
-  <si>
-    <t>azd0530</t>
-  </si>
-  <si>
-    <t>plx4720</t>
-  </si>
-  <si>
-    <t>cid-5951923</t>
-  </si>
-  <si>
-    <t>mps-1-in-1</t>
-  </si>
-  <si>
-    <t>sr-ii-138a</t>
-  </si>
-  <si>
-    <t>brd-k96431673</t>
-  </si>
-  <si>
-    <t>pf-543</t>
-  </si>
-  <si>
-    <t>niclosamide</t>
-  </si>
-  <si>
-    <t>lomeguatrib</t>
-  </si>
-  <si>
-    <t>vorinostat</t>
-  </si>
-  <si>
-    <t>mln2480</t>
-  </si>
-  <si>
-    <t>ym201636</t>
-  </si>
-  <si>
-    <t>bx-912</t>
-  </si>
-  <si>
-    <t>pandacostat</t>
-  </si>
-  <si>
     <t>brd-k30748066</t>
   </si>
   <si>
-    <t>ciclosporin</t>
-  </si>
-  <si>
-    <t>brd-k86535717</t>
-  </si>
-  <si>
-    <t>lbh-589</t>
-  </si>
-  <si>
-    <t>xmd13-2</t>
-  </si>
-  <si>
-    <t>genentech cpd 10</t>
-  </si>
-  <si>
-    <t>ciclopirox</t>
+    <t>ql-xii-47</t>
+  </si>
+  <si>
+    <t>gsk2636771</t>
+  </si>
+  <si>
+    <t>marinopyrrole a</t>
+  </si>
+  <si>
+    <t>abt-737</t>
+  </si>
+  <si>
+    <t>masitinib</t>
+  </si>
+  <si>
+    <t>blebbistatin</t>
   </si>
   <si>
     <t>ml029</t>
   </si>
   <si>
-    <t>gsk319347a</t>
-  </si>
-  <si>
-    <t>ipr-456</t>
-  </si>
-  <si>
-    <t>compound 23 citrate</t>
-  </si>
-  <si>
-    <t>bax channel blocker</t>
-  </si>
-  <si>
-    <t>cucurbitacin i</t>
-  </si>
-  <si>
-    <t>talazoparib</t>
-  </si>
-  <si>
-    <t>cil55</t>
-  </si>
-  <si>
-    <t>brd-k61166597</t>
-  </si>
-  <si>
-    <t>bcl-lzh-4</t>
-  </si>
-  <si>
-    <t>brd-a94377914</t>
-  </si>
-  <si>
-    <t>ml083</t>
-  </si>
-  <si>
-    <t>gw-405833</t>
-  </si>
-  <si>
-    <t>brd-k84807411</t>
-  </si>
-  <si>
-    <t>o-6-benzylguanine</t>
-  </si>
-  <si>
-    <t>marinopyrrole a</t>
-  </si>
-  <si>
-    <t>iox2</t>
-  </si>
-  <si>
-    <t>gmx-1778</t>
-  </si>
-  <si>
-    <t>bx796</t>
-  </si>
-  <si>
-    <t>cay10603</t>
-  </si>
-  <si>
-    <t>kin001-244</t>
-  </si>
-  <si>
-    <t>brd-k45681478</t>
-  </si>
-  <si>
-    <t>pl-di</t>
-  </si>
-  <si>
-    <t>itraconazole</t>
-  </si>
-  <si>
-    <t>i-bet151</t>
-  </si>
-  <si>
-    <t>ql-xii-47</t>
-  </si>
-  <si>
-    <t>pf-750</t>
-  </si>
-  <si>
-    <t>brd-k28456706</t>
-  </si>
-  <si>
-    <t>brd-k27986637</t>
-  </si>
-  <si>
-    <t>darinaparsin</t>
-  </si>
-  <si>
-    <t>sz4ta2</t>
-  </si>
-  <si>
-    <t>16-beta-bromoandrosterone</t>
-  </si>
-  <si>
-    <t>at-406</t>
-  </si>
-  <si>
-    <t>necrosulfonamide</t>
-  </si>
-  <si>
-    <t>abt-199</t>
-  </si>
-  <si>
-    <t>belinostat</t>
-  </si>
-  <si>
-    <t>wz4002</t>
-  </si>
-  <si>
-    <t>tgx-221</t>
+    <t>zd-6474</t>
+  </si>
+  <si>
+    <t>elcpk</t>
+  </si>
+  <si>
+    <t>brd-k92856060</t>
+  </si>
+  <si>
+    <t>brd-k44224150</t>
+  </si>
+  <si>
+    <t>bexarotene</t>
   </si>
   <si>
     <t>mln2238</t>
   </si>
   <si>
-    <t>wp1130</t>
-  </si>
-  <si>
-    <t>tigecycline</t>
-  </si>
-  <si>
-    <t>cp724714</t>
-  </si>
-  <si>
-    <t>cx-5461</t>
-  </si>
-  <si>
-    <t>crizotinib</t>
-  </si>
-  <si>
-    <t>myricetin</t>
-  </si>
-  <si>
-    <t>brd6340</t>
-  </si>
-  <si>
-    <t>osi-930</t>
-  </si>
-  <si>
-    <t>daporinad</t>
-  </si>
-  <si>
-    <t>skepinone-l</t>
-  </si>
-  <si>
     <t>kin001-236</t>
   </si>
   <si>
-    <t>brd-k11533227</t>
-  </si>
-  <si>
-    <t>abt-737</t>
-  </si>
-  <si>
-    <t>968</t>
-  </si>
-  <si>
-    <t>brd-k02251932</t>
-  </si>
-  <si>
-    <t>gsk2636771</t>
-  </si>
-  <si>
-    <t>avrainvillamide</t>
-  </si>
-  <si>
-    <t>bexarotene</t>
-  </si>
-  <si>
-    <t>sb-525334</t>
-  </si>
-  <si>
-    <t>pha-665752</t>
-  </si>
-  <si>
-    <t>cerulenin</t>
-  </si>
-  <si>
-    <t>aew541</t>
-  </si>
-  <si>
-    <t>gossypol</t>
-  </si>
-  <si>
-    <t>ver-155008</t>
-  </si>
-  <si>
-    <t>oligomycin a</t>
-  </si>
-  <si>
-    <t>cct036477</t>
+    <t>regorafenib</t>
+  </si>
+  <si>
+    <t>pluripotin</t>
+  </si>
+  <si>
+    <t>cd-1530</t>
   </si>
   <si>
     <t>rita</t>
   </si>
   <si>
-    <t>dasatinib</t>
-  </si>
-  <si>
-    <t>brd-k92856060</t>
-  </si>
-  <si>
-    <t>pluripotin</t>
-  </si>
-  <si>
-    <t>dbeq</t>
-  </si>
-  <si>
-    <t>zd-6474</t>
-  </si>
-  <si>
-    <t>masitinib</t>
-  </si>
-  <si>
-    <t>nsc19630</t>
-  </si>
-  <si>
-    <t>brd-k44224150</t>
-  </si>
-  <si>
-    <t>blebbistatin</t>
-  </si>
-  <si>
-    <t>bardoxolone methyl</t>
-  </si>
-  <si>
-    <t>xl765</t>
-  </si>
-  <si>
-    <t>bix-01294</t>
-  </si>
-  <si>
-    <t>tgx221</t>
-  </si>
-  <si>
-    <t>vaf-347</t>
-  </si>
-  <si>
-    <t>gsk4112</t>
-  </si>
-  <si>
-    <t>brd-k51831558</t>
-  </si>
-  <si>
-    <t>vx-702</t>
-  </si>
-  <si>
-    <t>seliciclib</t>
-  </si>
-  <si>
-    <t>compound 1541a</t>
-  </si>
-  <si>
-    <t>sb-743921</t>
-  </si>
-  <si>
-    <t>motesanib</t>
-  </si>
-  <si>
-    <t>brd4132</t>
-  </si>
-  <si>
-    <t>elcpk</t>
-  </si>
-  <si>
-    <t>ci-976</t>
-  </si>
-  <si>
-    <t>regorafenib</t>
-  </si>
-  <si>
-    <t>cd-1530</t>
-  </si>
-  <si>
     <t>Not Clinically Relevant</t>
   </si>
   <si>
     <t>Nucleoside analog, inhibitor of DNA methylation and DNA/RNA synthesis (Vidaza)</t>
   </si>
   <si>
+    <t xml:space="preserve">antipsychotic, antiadrenergic and antidopaminergic. Blocks dopamine D1 and D2 receptors </t>
+  </si>
+  <si>
     <t>SMAC mimetic, mostly to cIAP1, less potent against XIAP.</t>
   </si>
   <si>
     <t>Hedgehog (Smoothened) antagonist (LDE225)</t>
   </si>
   <si>
+    <t>Bcl-2 family inhibitor: esp Bcl-xL, Bcl-2 and Bcl-w</t>
+  </si>
+  <si>
     <t>VX-680, pan-Aurora inhibitor, mostly against Aurora A, less potent towards Aurora B/C</t>
   </si>
   <si>
+    <t>inhibits biosynthesis of (NAD+ from niacinamide (vitamin B3), which may deplete energy reserves in metabolically active tumor cells</t>
+  </si>
+  <si>
+    <t>agonist of PPARα, inhibitor of carnitine palmitoyltransferase-1 (CPT-1)</t>
+  </si>
+  <si>
+    <t>pan-PKC inhibitor</t>
+  </si>
+  <si>
+    <t>Braf (V600E) inhibitor</t>
+  </si>
+  <si>
+    <t>used to treat tapeworm infestations,  inhibits glucose uptake, oxidative phosphorylation, and anaerobic metabolism in the tapeworm</t>
+  </si>
+  <si>
+    <t>inhibits the kinases BCR-ABL,[26] KIT, LCK, EPHA3, EPHA8, DDR1, DDR2, PDGFRB, MAPK11 and ZAK</t>
+  </si>
+  <si>
+    <t>PARP inhibitor, inhibits DNA repair</t>
+  </si>
+  <si>
+    <t>VEGFR inhibitor</t>
+  </si>
+  <si>
+    <t>HDAC inhibitor (SAHA)</t>
+  </si>
+  <si>
+    <t>kinesin spindle protein (KSP) inhibitor</t>
+  </si>
+  <si>
     <t>CDK4/6 inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">antipsychotic, antiadrenergic and antidopaminergic. Blocks dopamine D1 and D2 receptors </t>
-  </si>
-  <si>
-    <t>Braf (V600E) inhibitor</t>
-  </si>
-  <si>
-    <t>inhibits the kinases BCR-ABL,[26] KIT, LCK, EPHA3, EPHA8, DDR1, DDR2, PDGFRB, MAPK11 and ZAK</t>
-  </si>
-  <si>
-    <t>Bcl-2 family inhibitor: esp Bcl-xL, Bcl-2 and Bcl-w</t>
+    <t>proteasome inhibitor (Velcade)</t>
+  </si>
+  <si>
+    <t>HDAC inhibitor (PXD101)</t>
+  </si>
+  <si>
+    <t>ALK, ROS1 and MET inhibitor</t>
+  </si>
+  <si>
+    <t>antifungal agent for topical dermatologic treatment of superficial mycoses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhibitor of MGMT, a DNA repair protein that confers resistance to alkylating agents such as Temozolomide, DTIC, Carmustine, etc. </t>
+  </si>
+  <si>
+    <t>HDAC inhibitor</t>
+  </si>
+  <si>
+    <t>Flavopiridol, CDK inhibitor, works against CDK1, 2, 4, 6 and 9</t>
+  </si>
+  <si>
+    <t>BRAF (V600E) inhibitor</t>
+  </si>
+  <si>
+    <t>antibiotic used to treat a number of bacterial infections</t>
+  </si>
+  <si>
+    <t>TAK-580, pan-Raf kinase inhibitor</t>
+  </si>
+  <si>
+    <t>sphingosine-1-phosphate receptor modulator, sequesters lymphocytes in lymph nodes, mostly used for treating multiple sclerosis</t>
+  </si>
+  <si>
+    <t>IGF-1R inhibitor</t>
+  </si>
+  <si>
+    <t>PI3K/mTOR inhibitor</t>
   </si>
   <si>
     <t>MEK1 inhibitor</t>
   </si>
   <si>
-    <t>BRAF (V600E) inhibitor</t>
-  </si>
-  <si>
-    <t>pan-PKC inhibitor</t>
-  </si>
-  <si>
-    <t>PARP inhibitor, inhibits DNA repair</t>
-  </si>
-  <si>
-    <t>IGF-1R inhibitor</t>
-  </si>
-  <si>
-    <t>sphingosine-1-phosphate receptor modulator, sequesters lymphocytes in lymph nodes, mostly used for treating multiple sclerosis</t>
-  </si>
-  <si>
-    <t>proteasome inhibitor (Velcade)</t>
-  </si>
-  <si>
-    <t>VEGFR inhibitor</t>
-  </si>
-  <si>
-    <t>agonist of PPARα, inhibitor of carnitine palmitoyltransferase-1 (CPT-1)</t>
+    <t>organic arsenic compound composed of dimethylated arsenic linked to glutathione</t>
+  </si>
+  <si>
+    <t>Bcl2 inhibitor</t>
+  </si>
+  <si>
+    <t>guanine analog, binds the DNA repair enzyme O(6)-alkylguanine DNA alkyltransferase (AGT) resulting in inhibition of AGT-mediated DNA repair</t>
+  </si>
+  <si>
+    <t>selective estrogen receptor degrader (SERD)</t>
   </si>
   <si>
     <t xml:space="preserve">Mdm2 antagonist, stabilizes p53 </t>
   </si>
   <si>
-    <t>selective estrogen receptor degrader (SERD)</t>
+    <t>Natural product, may function to inhibit Bcl2 family members</t>
+  </si>
+  <si>
+    <t>Anti-fungal, hedgehog antagonist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inhibitor of Kit, KDR and CSF-1R; also potent to Flt-1, c-Raf and Lck</t>
   </si>
   <si>
     <t>CDK inhibitor, esp CDK1, 2, 5, and 9</t>
   </si>
   <si>
-    <t>Flavopiridol, CDK inhibitor, works against CDK1, 2, 4, 6 and 9</t>
-  </si>
-  <si>
     <t>kinase inhibitor, with selectivity against Src and Bcr-Abl</t>
   </si>
   <si>
-    <t>used to treat tapeworm infestations,  inhibits glucose uptake, oxidative phosphorylation, and anaerobic metabolism in the tapeworm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhibitor of MGMT, a DNA repair protein that confers resistance to alkylating agents such as Temozolomide, DTIC, Carmustine, etc. </t>
-  </si>
-  <si>
-    <t>HDAC inhibitor (SAHA)</t>
-  </si>
-  <si>
-    <t>TAK-580, pan-Raf kinase inhibitor</t>
-  </si>
-  <si>
-    <t>HDAC inhibitor</t>
-  </si>
-  <si>
-    <t>antifungal agent for topical dermatologic treatment of superficial mycoses</t>
-  </si>
-  <si>
-    <t>guanine analog, binds the DNA repair enzyme O(6)-alkylguanine DNA alkyltransferase (AGT) resulting in inhibition of AGT-mediated DNA repair</t>
-  </si>
-  <si>
-    <t>Anti-fungal, hedgehog antagonist</t>
-  </si>
-  <si>
-    <t>organic arsenic compound composed of dimethylated arsenic linked to glutathione</t>
-  </si>
-  <si>
-    <t>Bcl2 inhibitor</t>
-  </si>
-  <si>
-    <t>HDAC inhibitor (PXD101)</t>
+    <t>BCR-Abl, Src, c-Kit inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI3K beta inhibitor, &gt;900-fold selectivity over PI3Kα/PI3Kγ and &gt;10-fold over PI3Kδ. </t>
+  </si>
+  <si>
+    <t>Bcl-2/Bcl-xL inhibitor</t>
+  </si>
+  <si>
+    <t>tyrosine-kinase inhibitor used in the treatment of mast cell tumors in animals, specifically dogs</t>
+  </si>
+  <si>
+    <t>VEGFR, EGFR and RET inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retinoid that selectively activates retinoid X receptors (RXRs), induces cell differentiation and apoptosis </t>
   </si>
   <si>
     <t xml:space="preserve">Ixazomib, Proteasome inhibitor, inhibits the chymotrypsin-like proteolytic (β5) site of the 20S proteasome </t>
-  </si>
-  <si>
-    <t>antibiotic used to treat a number of bacterial infections</t>
-  </si>
-  <si>
-    <t>ALK, ROS1 and MET inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inhibitor of Kit, KDR and CSF-1R; also potent to Flt-1, c-Raf and Lck</t>
-  </si>
-  <si>
-    <t>inhibits biosynthesis of (NAD+ from niacinamide (vitamin B3), which may deplete energy reserves in metabolically active tumor cells</t>
-  </si>
-  <si>
-    <t>Bcl-2/Bcl-xL inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI3K beta inhibitor, &gt;900-fold selectivity over PI3Kα/PI3Kγ and &gt;10-fold over PI3Kδ. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">retinoid that selectively activates retinoid X receptors (RXRs), induces cell differentiation and apoptosis </t>
-  </si>
-  <si>
-    <t>Natural product, may function to inhibit Bcl2 family members</t>
-  </si>
-  <si>
-    <t>BCR-Abl, Src, c-Kit inhibitor</t>
-  </si>
-  <si>
-    <t>VEGFR, EGFR and RET inhibitor</t>
-  </si>
-  <si>
-    <t>tyrosine-kinase inhibitor used in the treatment of mast cell tumors in animals, specifically dogs</t>
-  </si>
-  <si>
-    <t>PI3K/mTOR inhibitor</t>
-  </si>
-  <si>
-    <t>kinesin spindle protein (KSP) inhibitor</t>
   </si>
   <si>
     <t xml:space="preserve">VEGFR2-TIE2 inhibitor </t>
@@ -1206,16 +1206,16 @@
         <v>217</v>
       </c>
       <c r="C2">
-        <v>0.08698938869568616</v>
+        <v>0.08563321890339802</v>
       </c>
       <c r="D2">
-        <v>0.003967559523809523</v>
+        <v>0.001101190476190476</v>
       </c>
       <c r="E2">
-        <v>0.9960331845238096</v>
+        <v>0.74</v>
       </c>
       <c r="F2">
-        <v>0.5681595825354112</v>
+        <v>0.5602319338985049</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,19 +1223,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3">
-        <v>0.04831951510823748</v>
+        <v>0.03863362822724786</v>
       </c>
       <c r="D3">
-        <v>0.006838244047619048</v>
+        <v>0.005758928571428571</v>
       </c>
       <c r="E3">
-        <v>0.9946424739195232</v>
+        <v>0.9957228017883756</v>
       </c>
       <c r="F3">
-        <v>0.5293499876911877</v>
+        <v>0.4523473696084019</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,16 +1246,16 @@
         <v>217</v>
       </c>
       <c r="C4">
-        <v>0.05767557293573367</v>
+        <v>0.04054483652786108</v>
       </c>
       <c r="D4">
-        <v>0.009202678571428572</v>
+        <v>0.005788690476190476</v>
       </c>
       <c r="E4">
-        <v>0.9937550746268656</v>
+        <v>0.9957228017883756</v>
       </c>
       <c r="F4">
-        <v>0.5097333974270077</v>
+        <v>0.4522737008731153</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,16 +1266,16 @@
         <v>217</v>
       </c>
       <c r="C5">
-        <v>0.04791277314563639</v>
+        <v>0.1345220084621042</v>
       </c>
       <c r="D5">
-        <v>0.01502946428571428</v>
+        <v>0.01</v>
       </c>
       <c r="E5">
-        <v>0.9893890881913304</v>
+        <v>0.9944394618834079</v>
       </c>
       <c r="F5">
-        <v>0.4814064881486153</v>
+        <v>0.422734757645981</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,16 +1286,16 @@
         <v>217</v>
       </c>
       <c r="C6">
-        <v>0.04874625198964476</v>
+        <v>0.0331058260708353</v>
       </c>
       <c r="D6">
-        <v>0.01668928571428572</v>
+        <v>0.01139880952380952</v>
       </c>
       <c r="E6">
-        <v>0.9891989520958084</v>
+        <v>0.9944394618834079</v>
       </c>
       <c r="F6">
-        <v>0.474622936182309</v>
+        <v>0.4197797964305802</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,16 +1306,16 @@
         <v>217</v>
       </c>
       <c r="C7">
-        <v>0.09361027214837266</v>
+        <v>0.148066541129043</v>
       </c>
       <c r="D7">
-        <v>0.01753169642857143</v>
+        <v>0.01592261904761905</v>
       </c>
       <c r="E7">
-        <v>0.9891989520958084</v>
+        <v>0.9914542728635682</v>
       </c>
       <c r="F7">
-        <v>0.4713187880332999</v>
+        <v>0.4124546458215577</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C8">
-        <v>0.08654980894881853</v>
+        <v>0.06865624438846588</v>
       </c>
       <c r="D8">
-        <v>0.02358467261904762</v>
+        <v>0.02422619047619048</v>
       </c>
       <c r="E8">
-        <v>0.9852129129129128</v>
+        <v>0.9845645645645644</v>
       </c>
       <c r="F8">
-        <v>0.4497772765116512</v>
+        <v>0.3826305040670201</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C9">
-        <v>0.04668356341529403</v>
+        <v>0.03612848691116322</v>
       </c>
       <c r="D9">
-        <v>0.02372708333333333</v>
+        <v>0.03263392857142857</v>
       </c>
       <c r="E9">
-        <v>0.9852129129129128</v>
+        <v>0.9775488721804512</v>
       </c>
       <c r="F9">
-        <v>0.4493925407244228</v>
+        <v>0.3576633491526511</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C10">
-        <v>0.04439319123752372</v>
+        <v>0.03352302156839117</v>
       </c>
       <c r="D10">
-        <v>0.0250235119047619</v>
+        <v>0.03705357142857143</v>
       </c>
       <c r="E10">
-        <v>0.9852129129129128</v>
+        <v>0.9745481927710844</v>
       </c>
       <c r="F10">
-        <v>0.4451336406726516</v>
+        <v>0.3474044492967631</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,16 +1386,16 @@
         <v>217</v>
       </c>
       <c r="C11">
-        <v>0.1528243402555478</v>
+        <v>0.02506262351893134</v>
       </c>
       <c r="D11">
-        <v>0.03142901785714286</v>
+        <v>0.03912202380952381</v>
       </c>
       <c r="E11">
-        <v>0.9817196078431372</v>
+        <v>0.9739215686274508</v>
       </c>
       <c r="F11">
-        <v>0.4248408997790614</v>
+        <v>0.3414771008247967</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,13 +1406,13 @@
         <v>217</v>
       </c>
       <c r="D12">
-        <v>0.03904092261904762</v>
+        <v>0.04200892857142857</v>
       </c>
       <c r="E12">
-        <v>0.9754762839879152</v>
+        <v>0.9724622356495468</v>
       </c>
       <c r="F12">
-        <v>0.4040799061312457</v>
+        <v>0.3343383180208637</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,13 +1423,13 @@
         <v>217</v>
       </c>
       <c r="D13">
-        <v>0.04635520833333334</v>
+        <v>0.04394345238095238</v>
       </c>
       <c r="E13">
-        <v>0.9695149773071106</v>
+        <v>0.97196671709531</v>
       </c>
       <c r="F13">
-        <v>0.3854524955070419</v>
+        <v>0.331038088867208</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1437,16 +1437,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D14">
-        <v>0.04923943452380952</v>
+        <v>0.04514880952380952</v>
       </c>
       <c r="E14">
-        <v>0.9680472727272728</v>
+        <v>0.97196671709531</v>
       </c>
       <c r="F14">
-        <v>0.3788964601323284</v>
+        <v>0.3285130608552738</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,16 +1454,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D15">
-        <v>0.04997157738095238</v>
+        <v>0.04794642857142857</v>
       </c>
       <c r="E15">
-        <v>0.9680472727272728</v>
+        <v>0.9708345978755691</v>
       </c>
       <c r="F15">
-        <v>0.3772285845633799</v>
+        <v>0.3227062854445823</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1471,16 +1471,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D16">
-        <v>0.05042514880952381</v>
+        <v>0.04821428571428572</v>
       </c>
       <c r="E16">
-        <v>0.9680472727272728</v>
+        <v>0.9708345978755691</v>
       </c>
       <c r="F16">
-        <v>0.3760408353215266</v>
+        <v>0.3223366705200615</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1491,13 +1491,13 @@
         <v>217</v>
       </c>
       <c r="D17">
-        <v>0.06453169642857143</v>
+        <v>0.04955357142857143</v>
       </c>
       <c r="E17">
-        <v>0.9568281582952816</v>
+        <v>0.9708345978755691</v>
       </c>
       <c r="F17">
-        <v>0.3474328671454754</v>
+        <v>0.3190641312956448</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1505,16 +1505,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D18">
-        <v>0.06655327380952381</v>
+        <v>0.05</v>
       </c>
       <c r="E18">
-        <v>0.9562150914634148</v>
+        <v>0.9708345978755691</v>
       </c>
       <c r="F18">
-        <v>0.3432336906590136</v>
+        <v>0.3181137564771751</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1525,13 +1525,13 @@
         <v>222</v>
       </c>
       <c r="D19">
-        <v>0.07557886904761905</v>
+        <v>0.0512202380952381</v>
       </c>
       <c r="E19">
-        <v>0.9484160305343512</v>
+        <v>0.9708345978755691</v>
       </c>
       <c r="F19">
-        <v>0.3254263643446806</v>
+        <v>0.3156089321035707</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1539,16 +1539,16 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D20">
-        <v>0.0781110119047619</v>
+        <v>0.05287202380952381</v>
       </c>
       <c r="E20">
-        <v>0.9472646788990826</v>
+        <v>0.9708345978755691</v>
       </c>
       <c r="F20">
-        <v>0.3205975257227914</v>
+        <v>0.3123143507080534</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1556,16 +1556,16 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D21">
-        <v>0.08553571428571427</v>
+        <v>0.05644345238095237</v>
       </c>
       <c r="E21">
-        <v>0.9410725880551302</v>
+        <v>0.9708345978755691</v>
       </c>
       <c r="F21">
-        <v>0.3076353186360045</v>
+        <v>0.3060670984444188</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1576,13 +1576,13 @@
         <v>217</v>
       </c>
       <c r="D22">
-        <v>0.08794523809523809</v>
+        <v>0.05712797619047619</v>
       </c>
       <c r="E22">
-        <v>0.9400349693251532</v>
+        <v>0.9708345978755691</v>
       </c>
       <c r="F22">
-        <v>0.3036223911662679</v>
+        <v>0.3051681635740923</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1593,13 +1593,13 @@
         <v>217</v>
       </c>
       <c r="D23">
-        <v>0.08973407738095238</v>
+        <v>0.06117559523809524</v>
       </c>
       <c r="E23">
-        <v>0.939630721966206</v>
+        <v>0.9691090629800309</v>
       </c>
       <c r="F23">
-        <v>0.3008976210266101</v>
+        <v>0.2983572721877452</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>217</v>
       </c>
       <c r="D24">
-        <v>0.09249717261904762</v>
+        <v>0.06302083333333333</v>
       </c>
       <c r="E24">
-        <v>0.9382187692307692</v>
+        <v>0.9686923076923076</v>
       </c>
       <c r="F24">
-        <v>0.2963973631035052</v>
+        <v>0.2952632152054377</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1624,16 +1624,16 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D25">
-        <v>0.09447931547619047</v>
+        <v>0.06688988095238095</v>
       </c>
       <c r="E25">
-        <v>0.9376117103235748</v>
+        <v>0.9661787365177196</v>
       </c>
       <c r="F25">
-        <v>0.2934370278843036</v>
+        <v>0.2910379858238432</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1641,16 +1641,16 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D26">
-        <v>0.0960327380952381</v>
+        <v>0.0696875</v>
       </c>
       <c r="E26">
-        <v>0.9374487654320988</v>
+        <v>0.9647685185185184</v>
       </c>
       <c r="F26">
-        <v>0.2909218290123868</v>
+        <v>0.2884654620719067</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1661,13 +1661,13 @@
         <v>225</v>
       </c>
       <c r="D27">
-        <v>0.09739791666666668</v>
+        <v>0.07063988095238095</v>
       </c>
       <c r="E27">
-        <v>0.9374487654320988</v>
+        <v>0.9647685185185184</v>
       </c>
       <c r="F27">
-        <v>0.2888221151621291</v>
+        <v>0.2875050872150478</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1678,13 +1678,13 @@
         <v>217</v>
       </c>
       <c r="D28">
-        <v>0.09957946428571428</v>
+        <v>0.07269345238095239</v>
       </c>
       <c r="E28">
-        <v>0.9366636222910216</v>
+        <v>0.9646284829721362</v>
       </c>
       <c r="F28">
-        <v>0.2856335908225821</v>
+        <v>0.2858987716315922</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1692,16 +1692,16 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D29">
-        <v>0.1001784226190476</v>
+        <v>0.07352678571428571</v>
       </c>
       <c r="E29">
-        <v>0.9366636222910216</v>
+        <v>0.9646284829721362</v>
       </c>
       <c r="F29">
-        <v>0.2847475020289233</v>
+        <v>0.285453628591443</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1709,16 +1709,16 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D30">
-        <v>0.1019370535714286</v>
+        <v>0.07510416666666668</v>
       </c>
       <c r="E30">
-        <v>0.9366636222910216</v>
+        <v>0.9646284829721362</v>
       </c>
       <c r="F30">
-        <v>0.2822563988624441</v>
+        <v>0.284369919242502</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1726,16 +1726,16 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D31">
-        <v>0.112408630952381</v>
+        <v>0.07575892857142857</v>
       </c>
       <c r="E31">
-        <v>0.9276241057542768</v>
+        <v>0.9646284829721362</v>
       </c>
       <c r="F31">
-        <v>0.2686234880569975</v>
+        <v>0.2840793265524501</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1743,16 +1743,16 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D32">
-        <v>0.1128717261904762</v>
+        <v>0.07754464285714285</v>
       </c>
       <c r="E32">
-        <v>0.9276241057542768</v>
+        <v>0.9646284829721362</v>
       </c>
       <c r="F32">
-        <v>0.2680644986630324</v>
+        <v>0.2834272828268256</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1763,13 +1763,13 @@
         <v>217</v>
       </c>
       <c r="D33">
-        <v>0.1139337797619047</v>
+        <v>0.08183035714285715</v>
       </c>
       <c r="E33">
-        <v>0.9276241057542768</v>
+        <v>0.9625741029641184</v>
       </c>
       <c r="F33">
-        <v>0.2666722555284352</v>
+        <v>0.2805243657059756</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1777,16 +1777,16 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D34">
-        <v>0.1158278273809524</v>
+        <v>0.08214285714285714</v>
       </c>
       <c r="E34">
-        <v>0.9276241057542768</v>
+        <v>0.9625741029641184</v>
       </c>
       <c r="F34">
-        <v>0.264672071773999</v>
+        <v>0.2802932006360138</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1794,16 +1794,16 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D35">
-        <v>0.1165050595238095</v>
+        <v>0.08790178571428571</v>
       </c>
       <c r="E35">
-        <v>0.9276241057542768</v>
+        <v>0.9592018779342724</v>
       </c>
       <c r="F35">
-        <v>0.2637865856764168</v>
+        <v>0.2752946652920656</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1814,13 +1814,13 @@
         <v>217</v>
       </c>
       <c r="D36">
-        <v>0.1348233630952381</v>
+        <v>0.08970238095238095</v>
       </c>
       <c r="E36">
-        <v>0.9112846394984326</v>
+        <v>0.9588087774294672</v>
       </c>
       <c r="F36">
-        <v>0.2463456388404893</v>
+        <v>0.2735008964638891</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1831,13 +1831,13 @@
         <v>217</v>
       </c>
       <c r="D37">
-        <v>0.1359183035714286</v>
+        <v>0.09388392857142858</v>
       </c>
       <c r="E37">
-        <v>0.9112846394984326</v>
+        <v>0.9559026687598116</v>
       </c>
       <c r="F37">
-        <v>0.2454159883075097</v>
+        <v>0.2697198673157788</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1848,13 +1848,13 @@
         <v>217</v>
       </c>
       <c r="D38">
-        <v>0.1361910714285715</v>
+        <v>0.0985565476190476</v>
       </c>
       <c r="E38">
-        <v>0.9112846394984326</v>
+        <v>0.9524685534591196</v>
       </c>
       <c r="F38">
-        <v>0.2451731399856868</v>
+        <v>0.2651978291484693</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1862,16 +1862,16 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D39">
-        <v>0.1363095238095238</v>
+        <v>0.09907738095238096</v>
       </c>
       <c r="E39">
-        <v>0.9112846394984326</v>
+        <v>0.9524685534591196</v>
       </c>
       <c r="F39">
-        <v>0.24506257127126</v>
+        <v>0.2646838685859043</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1882,13 +1882,13 @@
         <v>217</v>
       </c>
       <c r="D40">
-        <v>0.1390791666666667</v>
+        <v>0.1016964285714286</v>
       </c>
       <c r="E40">
-        <v>0.9112846394984326</v>
+        <v>0.9521451104100946</v>
       </c>
       <c r="F40">
-        <v>0.2426069222366079</v>
+        <v>0.2622066158734765</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1899,13 +1899,13 @@
         <v>217</v>
       </c>
       <c r="D41">
-        <v>0.1413287202380953</v>
+        <v>0.1072767857142857</v>
       </c>
       <c r="E41">
-        <v>0.9112846394984326</v>
+        <v>0.9477251184834125</v>
       </c>
       <c r="F41">
-        <v>0.2406831747344205</v>
+        <v>0.2581775679885419</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1916,13 +1916,13 @@
         <v>217</v>
       </c>
       <c r="D42">
-        <v>0.1498016369047619</v>
+        <v>0.1104017857142857</v>
       </c>
       <c r="E42">
-        <v>0.9040099683544304</v>
+        <v>0.9459018987341772</v>
       </c>
       <c r="F42">
-        <v>0.2332488723893296</v>
+        <v>0.2564619149186973</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1930,16 +1930,16 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D43">
-        <v>0.1517727678571429</v>
+        <v>0.1116666666666667</v>
       </c>
       <c r="E43">
-        <v>0.903342472266244</v>
+        <v>0.9459018987341772</v>
       </c>
       <c r="F43">
-        <v>0.2314127469482327</v>
+        <v>0.2559377801329751</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1950,13 +1950,13 @@
         <v>217</v>
       </c>
       <c r="D44">
-        <v>0.1529041666666667</v>
+        <v>0.1123511904761905</v>
       </c>
       <c r="E44">
-        <v>0.903342472266244</v>
+        <v>0.9459018987341772</v>
       </c>
       <c r="F44">
-        <v>0.2305639494904317</v>
+        <v>0.2555673642562105</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1964,16 +1964,16 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D45">
-        <v>0.1539269345238095</v>
+        <v>0.1139732142857143</v>
       </c>
       <c r="E45">
-        <v>0.903342472266244</v>
+        <v>0.9459018987341772</v>
       </c>
       <c r="F45">
-        <v>0.2296189972340744</v>
+        <v>0.2546836911251751</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1984,13 +1984,13 @@
         <v>217</v>
       </c>
       <c r="D46">
-        <v>0.1590446428571429</v>
+        <v>0.115639880952381</v>
       </c>
       <c r="E46">
-        <v>0.8998781847133758</v>
+        <v>0.9459018987341772</v>
       </c>
       <c r="F46">
-        <v>0.2251607509803011</v>
+        <v>0.2537131552118573</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2001,13 +2001,13 @@
         <v>217</v>
       </c>
       <c r="D47">
-        <v>0.1592946428571429</v>
+        <v>0.1160119047619047</v>
       </c>
       <c r="E47">
-        <v>0.8998781847133758</v>
+        <v>0.9459018987341772</v>
       </c>
       <c r="F47">
-        <v>0.2249762955335972</v>
+        <v>0.2535222058825751</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2018,13 +2018,13 @@
         <v>217</v>
       </c>
       <c r="D48">
-        <v>0.1596276785714285</v>
+        <v>0.1184821428571429</v>
       </c>
       <c r="E48">
-        <v>0.8998781847133758</v>
+        <v>0.9459018987341772</v>
       </c>
       <c r="F48">
-        <v>0.2246641904867521</v>
+        <v>0.2521269470395331</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2032,16 +2032,16 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D49">
-        <v>0.1606010416666667</v>
+        <v>0.1188690476190476</v>
       </c>
       <c r="E49">
-        <v>0.8998781847133758</v>
+        <v>0.9459018987341772</v>
       </c>
       <c r="F49">
-        <v>0.2239578525582724</v>
+        <v>0.251914090557244</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2049,16 +2049,16 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D50">
-        <v>0.1631672619047619</v>
+        <v>0.1217410714285714</v>
       </c>
       <c r="E50">
-        <v>0.8998781847133758</v>
+        <v>0.9458173076923078</v>
       </c>
       <c r="F50">
-        <v>0.2217389054365773</v>
+        <v>0.2504901487152963</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2069,13 +2069,13 @@
         <v>217</v>
       </c>
       <c r="D51">
-        <v>0.1660147321428571</v>
+        <v>0.1274404761904762</v>
       </c>
       <c r="E51">
-        <v>0.8995802568218298</v>
+        <v>0.941187800963082</v>
       </c>
       <c r="F51">
-        <v>0.2194675739553081</v>
+        <v>0.2473888119913347</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2083,16 +2083,16 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D52">
-        <v>0.1662200892857143</v>
+        <v>0.1288541666666667</v>
       </c>
       <c r="E52">
-        <v>0.8995802568218298</v>
+        <v>0.9411736334405144</v>
       </c>
       <c r="F52">
-        <v>0.2192790966814856</v>
+        <v>0.2464911112851353</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2103,13 +2103,13 @@
         <v>217</v>
       </c>
       <c r="D53">
-        <v>0.167396875</v>
+        <v>0.1295238095238095</v>
       </c>
       <c r="E53">
-        <v>0.8995802568218298</v>
+        <v>0.9411736334405144</v>
       </c>
       <c r="F53">
-        <v>0.2183933609337239</v>
+        <v>0.2461609205702742</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2120,13 +2120,13 @@
         <v>217</v>
       </c>
       <c r="D54">
-        <v>0.1679997023809524</v>
+        <v>0.1297470238095238</v>
       </c>
       <c r="E54">
-        <v>0.8995802568218298</v>
+        <v>0.9411736334405144</v>
       </c>
       <c r="F54">
-        <v>0.2179118610231698</v>
+        <v>0.2460201489379461</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2137,13 +2137,13 @@
         <v>217</v>
       </c>
       <c r="D55">
-        <v>0.1698584821428571</v>
+        <v>0.1307142857142857</v>
       </c>
       <c r="E55">
-        <v>0.8995802568218298</v>
+        <v>0.9411736334405144</v>
       </c>
       <c r="F55">
-        <v>0.2162426432963163</v>
+        <v>0.2456482158887315</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2151,16 +2151,16 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D56">
-        <v>0.1717666666666667</v>
+        <v>0.1335119047619047</v>
       </c>
       <c r="E56">
-        <v>0.8995802568218298</v>
+        <v>0.9411736334405144</v>
       </c>
       <c r="F56">
-        <v>0.2147026393147401</v>
+        <v>0.2441485478281014</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2171,13 +2171,13 @@
         <v>233</v>
       </c>
       <c r="D57">
-        <v>0.1721142857142857</v>
+        <v>0.1345238095238095</v>
       </c>
       <c r="E57">
-        <v>0.8995802568218298</v>
+        <v>0.9411736334405144</v>
       </c>
       <c r="F57">
-        <v>0.2145006223879321</v>
+        <v>0.2435740365262342</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2188,13 +2188,13 @@
         <v>217</v>
       </c>
       <c r="D58">
-        <v>0.1722052083333333</v>
+        <v>0.1355654761904762</v>
       </c>
       <c r="E58">
-        <v>0.8995802568218298</v>
+        <v>0.9411736334405144</v>
       </c>
       <c r="F58">
-        <v>0.2144318827467329</v>
+        <v>0.2429404926636955</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2205,13 +2205,13 @@
         <v>217</v>
       </c>
       <c r="D59">
-        <v>0.1730227678571429</v>
+        <v>0.1366071428571428</v>
       </c>
       <c r="E59">
-        <v>0.8995802568218298</v>
+        <v>0.9411736334405144</v>
       </c>
       <c r="F59">
-        <v>0.2137757402179833</v>
+        <v>0.2421530954690567</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2222,13 +2222,13 @@
         <v>217</v>
       </c>
       <c r="D60">
-        <v>0.1757918154761905</v>
+        <v>0.1373214285714285</v>
       </c>
       <c r="E60">
-        <v>0.8995802568218298</v>
+        <v>0.9411736334405144</v>
       </c>
       <c r="F60">
-        <v>0.2117225356389203</v>
+        <v>0.2416496977743346</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2236,16 +2236,16 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="D61">
-        <v>0.1758717261904762</v>
+        <v>0.1376190476190476</v>
       </c>
       <c r="E61">
-        <v>0.8995802568218298</v>
+        <v>0.9411736334405144</v>
       </c>
       <c r="F61">
-        <v>0.2116964458949563</v>
+        <v>0.2413671331144701</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2253,16 +2253,16 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D62">
-        <v>0.1759380952380953</v>
+        <v>0.1441517857142857</v>
       </c>
       <c r="E62">
-        <v>0.8995802568218298</v>
+        <v>0.9397549019607844</v>
       </c>
       <c r="F62">
-        <v>0.2116577077932782</v>
+        <v>0.2369398005782669</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2273,13 +2273,13 @@
         <v>217</v>
       </c>
       <c r="D63">
-        <v>0.1769717261904762</v>
+        <v>0.1447619047619048</v>
       </c>
       <c r="E63">
-        <v>0.8995802568218298</v>
+        <v>0.9397549019607844</v>
       </c>
       <c r="F63">
-        <v>0.2108737693266912</v>
+        <v>0.2364715190394029</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2287,16 +2287,16 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D64">
-        <v>0.1829419642857143</v>
+        <v>0.1525148809523809</v>
       </c>
       <c r="E64">
-        <v>0.8995802568218298</v>
+        <v>0.9336229508196722</v>
       </c>
       <c r="F64">
-        <v>0.2062773355688167</v>
+        <v>0.2316721106076995</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2307,13 +2307,13 @@
         <v>217</v>
       </c>
       <c r="D65">
-        <v>0.1832160714285714</v>
+        <v>0.1539880952380953</v>
       </c>
       <c r="E65">
-        <v>0.8995802568218298</v>
+        <v>0.9335303776683088</v>
       </c>
       <c r="F65">
-        <v>0.2060449849665455</v>
+        <v>0.2309039759927425</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2321,16 +2321,16 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D66">
-        <v>0.1859901785714285</v>
+        <v>0.1648809523809524</v>
       </c>
       <c r="E66">
-        <v>0.8995802568218298</v>
+        <v>0.9230263157894736</v>
       </c>
       <c r="F66">
-        <v>0.2041124311264307</v>
+        <v>0.2241393695484509</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2338,16 +2338,16 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="D67">
-        <v>0.1899431547619048</v>
+        <v>0.1668303571428572</v>
       </c>
       <c r="E67">
-        <v>0.8968031301482702</v>
+        <v>0.9223887973640856</v>
       </c>
       <c r="F67">
-        <v>0.2013289551803736</v>
+        <v>0.2229027715625569</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2358,13 +2358,13 @@
         <v>217</v>
       </c>
       <c r="D68">
-        <v>0.1968352678571429</v>
+        <v>0.1719791666666667</v>
       </c>
       <c r="E68">
-        <v>0.8906409240924092</v>
+        <v>0.9182013201320132</v>
       </c>
       <c r="F68">
-        <v>0.1964503163579008</v>
+        <v>0.2191068073381702</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2375,13 +2375,13 @@
         <v>217</v>
       </c>
       <c r="D69">
-        <v>0.1971063988095238</v>
+        <v>0.1728571428571428</v>
       </c>
       <c r="E69">
-        <v>0.8906409240924092</v>
+        <v>0.9182013201320132</v>
       </c>
       <c r="F69">
-        <v>0.1962512723017949</v>
+        <v>0.2186036612629493</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2392,13 +2392,13 @@
         <v>217</v>
       </c>
       <c r="D70">
-        <v>0.1976084821428571</v>
+        <v>0.1733630952380953</v>
       </c>
       <c r="E70">
-        <v>0.8906409240924092</v>
+        <v>0.9182013201320132</v>
       </c>
       <c r="F70">
-        <v>0.1958912135612255</v>
+        <v>0.2182213180553347</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2406,16 +2406,16 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="D71">
-        <v>0.1977022321428571</v>
+        <v>0.175639880952381</v>
       </c>
       <c r="E71">
-        <v>0.8906409240924092</v>
+        <v>0.9182013201320132</v>
       </c>
       <c r="F71">
-        <v>0.1958521297618543</v>
+        <v>0.2168855918778085</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2423,16 +2423,16 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D72">
-        <v>0.1999186011904762</v>
+        <v>0.1777083333333333</v>
       </c>
       <c r="E72">
-        <v>0.8906409240924092</v>
+        <v>0.917906976744186</v>
       </c>
       <c r="F72">
-        <v>0.1942118505913576</v>
+        <v>0.2154920692973961</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2443,13 +2443,13 @@
         <v>217</v>
       </c>
       <c r="D73">
-        <v>0.2030452380952381</v>
+        <v>0.1783035714285714</v>
       </c>
       <c r="E73">
-        <v>0.8906409240924092</v>
+        <v>0.917906976744186</v>
       </c>
       <c r="F73">
-        <v>0.1920736134892007</v>
+        <v>0.2152029531313349</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2460,13 +2460,13 @@
         <v>217</v>
       </c>
       <c r="D74">
-        <v>0.2082992559523809</v>
+        <v>0.1858779761904762</v>
       </c>
       <c r="E74">
-        <v>0.8867084999999999</v>
+        <v>0.9118166666666666</v>
       </c>
       <c r="F74">
-        <v>0.1883713295737287</v>
+        <v>0.2109283182765571</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2477,13 +2477,13 @@
         <v>217</v>
       </c>
       <c r="D75">
-        <v>0.2087398809523809</v>
+        <v>0.1866815476190476</v>
       </c>
       <c r="E75">
-        <v>0.8867084999999999</v>
+        <v>0.9118166666666666</v>
       </c>
       <c r="F75">
-        <v>0.1880035226058817</v>
+        <v>0.2105509224200473</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2494,13 +2494,13 @@
         <v>217</v>
       </c>
       <c r="D76">
-        <v>0.2096461309523809</v>
+        <v>0.1898511904761905</v>
       </c>
       <c r="E76">
-        <v>0.8867084999999999</v>
+        <v>0.9104013377926422</v>
       </c>
       <c r="F76">
-        <v>0.1874055032644068</v>
+        <v>0.2090030912432295</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2511,13 +2511,13 @@
         <v>217</v>
       </c>
       <c r="D77">
-        <v>0.2097684523809524</v>
+        <v>0.1924851190476191</v>
       </c>
       <c r="E77">
-        <v>0.8867084999999999</v>
+        <v>0.9089614740368509</v>
       </c>
       <c r="F77">
-        <v>0.1873073293546073</v>
+        <v>0.2080119476462537</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2528,13 +2528,13 @@
         <v>217</v>
       </c>
       <c r="D78">
-        <v>0.2182177083333333</v>
+        <v>0.1928125</v>
       </c>
       <c r="E78">
-        <v>0.8814741610738255</v>
+        <v>0.9089614740368509</v>
       </c>
       <c r="F78">
-        <v>0.1815095472866765</v>
+        <v>0.2078817436455745</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2545,13 +2545,13 @@
         <v>217</v>
       </c>
       <c r="D79">
-        <v>0.222590625</v>
+        <v>0.1940922619047619</v>
       </c>
       <c r="E79">
-        <v>0.8780163025210084</v>
+        <v>0.9089614740368509</v>
       </c>
       <c r="F79">
-        <v>0.1783669265035664</v>
+        <v>0.20745365342893</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2559,16 +2559,16 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="D80">
-        <v>0.2237919642857143</v>
+        <v>0.1967559523809524</v>
       </c>
       <c r="E80">
-        <v>0.8780163025210084</v>
+        <v>0.9087205387205388</v>
       </c>
       <c r="F80">
-        <v>0.1776269380414575</v>
+        <v>0.2065111511846635</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2579,13 +2579,13 @@
         <v>217</v>
       </c>
       <c r="D81">
-        <v>0.2243239583333333</v>
+        <v>0.2000297619047619</v>
       </c>
       <c r="E81">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F81">
-        <v>0.1773010384838544</v>
+        <v>0.2055660870370605</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2596,13 +2596,13 @@
         <v>217</v>
       </c>
       <c r="D82">
-        <v>0.2254529761904762</v>
+        <v>0.2001934523809524</v>
       </c>
       <c r="E82">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F82">
-        <v>0.1765988712028249</v>
+        <v>0.2055026205183178</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2610,16 +2610,16 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83">
-        <v>0.2258364583333333</v>
+        <v>0.2008630952380953</v>
       </c>
       <c r="E83">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F83">
-        <v>0.176341819618709</v>
+        <v>0.2052703883204444</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2627,16 +2627,16 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="D84">
-        <v>0.2269861607142857</v>
+        <v>0.2026785714285715</v>
       </c>
       <c r="E84">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F84">
-        <v>0.1756060694367567</v>
+        <v>0.2046849758687539</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2647,13 +2647,13 @@
         <v>217</v>
       </c>
       <c r="D85">
-        <v>0.2274842261904762</v>
+        <v>0.2040625</v>
       </c>
       <c r="E85">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F85">
-        <v>0.1752488757678851</v>
+        <v>0.2042879638472709</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2664,13 +2664,13 @@
         <v>217</v>
       </c>
       <c r="D86">
-        <v>0.2275479166666667</v>
+        <v>0.2052529761904762</v>
       </c>
       <c r="E86">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F86">
-        <v>0.1752118626470254</v>
+        <v>0.2039061015753097</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2681,13 +2681,13 @@
         <v>217</v>
       </c>
       <c r="D87">
-        <v>0.2280395833333333</v>
+        <v>0.2055803571428572</v>
       </c>
       <c r="E87">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F87">
-        <v>0.1748850185160357</v>
+        <v>0.2037892646897592</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2695,16 +2695,16 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D88">
-        <v>0.2302821428571429</v>
+        <v>0.2058482142857143</v>
       </c>
       <c r="E88">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F88">
-        <v>0.1733744060848329</v>
+        <v>0.2036971723299784</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2712,16 +2712,16 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D89">
-        <v>0.2304763392857143</v>
+        <v>0.2065029761904762</v>
       </c>
       <c r="E89">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F89">
-        <v>0.1732624749813549</v>
+        <v>0.2035354278974904</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2729,16 +2729,16 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D90">
-        <v>0.2310127976190476</v>
+        <v>0.2088244047619048</v>
       </c>
       <c r="E90">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F90">
-        <v>0.1729144437181019</v>
+        <v>0.2027645858027187</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2749,13 +2749,13 @@
         <v>217</v>
       </c>
       <c r="D91">
-        <v>0.2311574404761905</v>
+        <v>0.2104464285714286</v>
       </c>
       <c r="E91">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F91">
-        <v>0.1728353817886913</v>
+        <v>0.2022957964507671</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2766,13 +2766,13 @@
         <v>217</v>
       </c>
       <c r="D92">
-        <v>0.233697619047619</v>
+        <v>0.2109375</v>
       </c>
       <c r="E92">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F92">
-        <v>0.171323945031452</v>
+        <v>0.2021401651561747</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2780,16 +2780,16 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D93">
-        <v>0.2341041666666667</v>
+        <v>0.2112202380952381</v>
       </c>
       <c r="E93">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F93">
-        <v>0.17112684437704</v>
+        <v>0.202043014807491</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2800,13 +2800,13 @@
         <v>217</v>
       </c>
       <c r="D94">
-        <v>0.2362162202380952</v>
+        <v>0.2130208333333333</v>
       </c>
       <c r="E94">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F94">
-        <v>0.1698395266432102</v>
+        <v>0.2015002078022961</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2814,16 +2814,16 @@
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="D95">
-        <v>0.2392830357142857</v>
+        <v>0.2130654761904762</v>
       </c>
       <c r="E95">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F95">
-        <v>0.1679452793183389</v>
+        <v>0.2014902554661341</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2834,13 +2834,13 @@
         <v>217</v>
       </c>
       <c r="D96">
-        <v>0.2446305059523809</v>
+        <v>0.2136904761904762</v>
       </c>
       <c r="E96">
-        <v>0.8780163025210084</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F96">
-        <v>0.1649837056386597</v>
+        <v>0.2012557355639904</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2851,13 +2851,13 @@
         <v>217</v>
       </c>
       <c r="D97">
-        <v>0.2493467261904762</v>
+        <v>0.2159523809523809</v>
       </c>
       <c r="E97">
-        <v>0.8742445407279029</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F97">
-        <v>0.162190797592028</v>
+        <v>0.2005591388996307</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2868,13 +2868,13 @@
         <v>217</v>
       </c>
       <c r="D98">
-        <v>0.2494903273809524</v>
+        <v>0.2160863095238096</v>
       </c>
       <c r="E98">
-        <v>0.8742445407279029</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F98">
-        <v>0.162118569936938</v>
+        <v>0.2004990320312804</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2882,16 +2882,16 @@
         <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="D99">
-        <v>0.2529822916666667</v>
+        <v>0.2184077380952381</v>
       </c>
       <c r="E99">
-        <v>0.8730375652173913</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F99">
-        <v>0.1601898755645528</v>
+        <v>0.1996402347875559</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2899,16 +2899,16 @@
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D100">
-        <v>0.2562507440476191</v>
+        <v>0.2190178571428572</v>
       </c>
       <c r="E100">
-        <v>0.870732055749129</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F100">
-        <v>0.1584829354007663</v>
+        <v>0.1994085700019455</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2919,13 +2919,13 @@
         <v>217</v>
       </c>
       <c r="D101">
-        <v>0.2611953869047619</v>
+        <v>0.2226041666666667</v>
       </c>
       <c r="E101">
-        <v>0.8664525305410122</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F101">
-        <v>0.1558174698812473</v>
+        <v>0.1982832775962737</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2936,13 +2936,13 @@
         <v>217</v>
       </c>
       <c r="D102">
-        <v>0.2612465773809524</v>
+        <v>0.2283035714285714</v>
       </c>
       <c r="E102">
-        <v>0.8664525305410122</v>
+        <v>0.9065430016863406</v>
       </c>
       <c r="F102">
-        <v>0.1557964342571437</v>
+        <v>0.196533148089504</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2953,13 +2953,13 @@
         <v>217</v>
       </c>
       <c r="D103">
-        <v>0.2660511904761905</v>
+        <v>0.2376041666666667</v>
       </c>
       <c r="E103">
-        <v>0.8637723292469351</v>
+        <v>0.8972504378283713</v>
       </c>
       <c r="F103">
-        <v>0.1533557300760657</v>
+        <v>0.1932967764045653</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2970,13 +2970,13 @@
         <v>217</v>
       </c>
       <c r="D104">
-        <v>0.2732883928571428</v>
+        <v>0.2381845238095238</v>
       </c>
       <c r="E104">
-        <v>0.8567577192982456</v>
+        <v>0.8972504378283713</v>
       </c>
       <c r="F104">
-        <v>0.1493718630197209</v>
+        <v>0.19301314233153</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2987,13 +2987,13 @@
         <v>217</v>
       </c>
       <c r="D105">
-        <v>0.275044494047619</v>
+        <v>0.2447767857142857</v>
       </c>
       <c r="E105">
-        <v>0.8561882249560633</v>
+        <v>0.891933216168717</v>
       </c>
       <c r="F105">
-        <v>0.1484634961275429</v>
+        <v>0.1902531564860645</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3004,13 +3004,13 @@
         <v>217</v>
       </c>
       <c r="D106">
-        <v>0.2754934523809524</v>
+        <v>0.2465029761904762</v>
       </c>
       <c r="E106">
-        <v>0.8561882249560633</v>
+        <v>0.8914612676056337</v>
       </c>
       <c r="F106">
-        <v>0.1482664897959445</v>
+        <v>0.1895910364874482</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3018,16 +3018,16 @@
         <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="D107">
-        <v>0.2758669642857143</v>
+        <v>0.2485416666666667</v>
       </c>
       <c r="E107">
-        <v>0.8561882249560633</v>
+        <v>0.8906172839506173</v>
       </c>
       <c r="F107">
-        <v>0.14806743238463</v>
+        <v>0.1885337651941054</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3035,16 +3035,16 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D108">
-        <v>0.2815912202380952</v>
+        <v>0.2494494047619048</v>
       </c>
       <c r="E108">
-        <v>0.8529551236749117</v>
+        <v>0.8906172839506173</v>
       </c>
       <c r="F108">
-        <v>0.1450259586247939</v>
+        <v>0.1881339184395067</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3052,16 +3052,16 @@
         <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="D109">
-        <v>0.2827711309523809</v>
+        <v>0.251235119047619</v>
       </c>
       <c r="E109">
-        <v>0.8529551236749117</v>
+        <v>0.8905663716814158</v>
       </c>
       <c r="F109">
-        <v>0.144398114740431</v>
+        <v>0.1872000352388021</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3069,16 +3069,16 @@
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="D110">
-        <v>0.2857633928571429</v>
+        <v>0.2533630952380952</v>
       </c>
       <c r="E110">
-        <v>0.851009574468085</v>
+        <v>0.8896099290780142</v>
       </c>
       <c r="F110">
-        <v>0.1427131531878076</v>
+        <v>0.1862081843866628</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3089,13 +3089,13 @@
         <v>217</v>
       </c>
       <c r="D111">
-        <v>0.2865787202380952</v>
+        <v>0.2555059523809524</v>
       </c>
       <c r="E111">
-        <v>0.851009574468085</v>
+        <v>0.8886323268206039</v>
       </c>
       <c r="F111">
-        <v>0.1423040965452303</v>
+        <v>0.1851768444961439</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3106,13 +3106,13 @@
         <v>217</v>
       </c>
       <c r="D112">
-        <v>0.2895941964285714</v>
+        <v>0.259389880952381</v>
       </c>
       <c r="E112">
-        <v>0.8494535587188612</v>
+        <v>0.8855693950177936</v>
       </c>
       <c r="F112">
-        <v>0.1405466804553379</v>
+        <v>0.183325510984844</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3120,16 +3120,16 @@
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="D113">
-        <v>0.2903409226190476</v>
+        <v>0.2594196428571429</v>
       </c>
       <c r="E113">
-        <v>0.8494535587188612</v>
+        <v>0.8855693950177936</v>
       </c>
       <c r="F113">
-        <v>0.1401598005498461</v>
+        <v>0.1833055846622961</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3140,27 +3140,30 @@
         <v>217</v>
       </c>
       <c r="D114">
-        <v>0.2938351190476191</v>
+        <v>0.2615178571428571</v>
       </c>
       <c r="E114">
-        <v>0.8473985714285714</v>
+        <v>0.8855693950177936</v>
       </c>
       <c r="F114">
-        <v>0.1383129566846086</v>
+        <v>0.182245784569881</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="B115" t="s">
+        <v>217</v>
+      </c>
       <c r="D115">
-        <v>0.2942413690476191</v>
+        <v>0.2621577380952381</v>
       </c>
       <c r="E115">
-        <v>0.8473985714285714</v>
+        <v>0.8855693950177936</v>
       </c>
       <c r="F115">
-        <v>0.1381180376776249</v>
+        <v>0.1819499227069392</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3171,13 +3174,13 @@
         <v>217</v>
       </c>
       <c r="D116">
-        <v>0.2996375</v>
+        <v>0.2630505952380953</v>
       </c>
       <c r="E116">
-        <v>0.8434530465949821</v>
+        <v>0.8855693950177936</v>
       </c>
       <c r="F116">
-        <v>0.1350767626085461</v>
+        <v>0.1814695851197751</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3185,16 +3188,16 @@
         <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="D117">
-        <v>0.3014741071428572</v>
+        <v>0.2633630952380953</v>
       </c>
       <c r="E117">
-        <v>0.8427468581687612</v>
+        <v>0.8855693950177936</v>
       </c>
       <c r="F117">
-        <v>0.1341125492868614</v>
+        <v>0.1813016017751441</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3202,16 +3205,16 @@
         <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D118">
-        <v>0.3019480654761905</v>
+        <v>0.2767113095238095</v>
       </c>
       <c r="E118">
-        <v>0.8427468581687612</v>
+        <v>0.8741906474820145</v>
       </c>
       <c r="F118">
-        <v>0.1337867908943452</v>
+        <v>0.1737212622775214</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3219,16 +3222,16 @@
         <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="D119">
-        <v>0.3036565476190476</v>
+        <v>0.2781994047619047</v>
       </c>
       <c r="E119">
-        <v>0.8427468581687612</v>
+        <v>0.8739639639639641</v>
       </c>
       <c r="F119">
-        <v>0.1328416605935545</v>
+        <v>0.1727953392281911</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3236,16 +3239,16 @@
         <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="D120">
-        <v>0.3110657738095238</v>
+        <v>0.2876339285714285</v>
       </c>
       <c r="E120">
-        <v>0.8356759927797834</v>
+        <v>0.8640974729241878</v>
       </c>
       <c r="F120">
-        <v>0.1287575024301605</v>
+        <v>0.1675008020420633</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3256,13 +3259,13 @@
         <v>217</v>
       </c>
       <c r="D121">
-        <v>0.3143900297619048</v>
+        <v>0.2877678571428571</v>
       </c>
       <c r="E121">
-        <v>0.8331479204339964</v>
+        <v>0.8640974729241878</v>
       </c>
       <c r="F121">
-        <v>0.1267506708897097</v>
+        <v>0.1674291761094266</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3273,13 +3276,13 @@
         <v>217</v>
       </c>
       <c r="D122">
-        <v>0.3144157738095238</v>
+        <v>0.2884226190476191</v>
       </c>
       <c r="E122">
-        <v>0.8331479204339964</v>
+        <v>0.8640974729241878</v>
       </c>
       <c r="F122">
-        <v>0.1267298137583838</v>
+        <v>0.1670010776191518</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3290,13 +3293,13 @@
         <v>217</v>
       </c>
       <c r="D123">
-        <v>0.3144581845238095</v>
+        <v>0.2905059523809524</v>
       </c>
       <c r="E123">
-        <v>0.8331479204339964</v>
+        <v>0.8640974729241878</v>
       </c>
       <c r="F123">
-        <v>0.1266897529365382</v>
+        <v>0.1660090881350029</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3304,16 +3307,16 @@
         <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="D124">
-        <v>0.3214733630952381</v>
+        <v>0.293110119047619</v>
       </c>
       <c r="E124">
-        <v>0.8290385454545456</v>
+        <v>0.8636909090909091</v>
       </c>
       <c r="F124">
-        <v>0.1227411413095906</v>
+        <v>0.1646705275877529</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3321,16 +3324,16 @@
         <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="D125">
-        <v>0.3236974702380953</v>
+        <v>0.2938095238095238</v>
       </c>
       <c r="E125">
-        <v>0.8278244080145719</v>
+        <v>0.8636909090909091</v>
       </c>
       <c r="F125">
-        <v>0.1214482221795976</v>
+        <v>0.1643339077536522</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3341,13 +3344,13 @@
         <v>217</v>
       </c>
       <c r="D126">
-        <v>0.3240245535714286</v>
+        <v>0.2945535714285714</v>
       </c>
       <c r="E126">
-        <v>0.8278244080145719</v>
+        <v>0.8636909090909091</v>
       </c>
       <c r="F126">
-        <v>0.1212673087856409</v>
+        <v>0.1638603471481883</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3358,13 +3361,13 @@
         <v>217</v>
       </c>
       <c r="D127">
-        <v>0.3241659226190476</v>
+        <v>0.2965178571428572</v>
       </c>
       <c r="E127">
-        <v>0.8278244080145719</v>
+        <v>0.8636909090909091</v>
       </c>
       <c r="F127">
-        <v>0.1211753030825818</v>
+        <v>0.1627842753651333</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3372,16 +3375,16 @@
         <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="D128">
-        <v>0.3255087797619048</v>
+        <v>0.3067410714285714</v>
       </c>
       <c r="E128">
-        <v>0.8278244080145719</v>
+        <v>0.8532417582417582</v>
       </c>
       <c r="F128">
-        <v>0.1203359417743228</v>
+        <v>0.157517583513785</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3392,13 +3395,13 @@
         <v>217</v>
       </c>
       <c r="D129">
-        <v>0.3256565476190476</v>
+        <v>0.3108184523809524</v>
       </c>
       <c r="E129">
-        <v>0.8278244080145719</v>
+        <v>0.8497798165137614</v>
       </c>
       <c r="F129">
-        <v>0.1202645000306801</v>
+        <v>0.1556155332024652</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3409,13 +3412,13 @@
         <v>217</v>
       </c>
       <c r="D130">
-        <v>0.3266063988095238</v>
+        <v>0.3116517857142857</v>
       </c>
       <c r="E130">
-        <v>0.8278244080145719</v>
+        <v>0.8497798165137614</v>
       </c>
       <c r="F130">
-        <v>0.1197100558143797</v>
+        <v>0.1552358452936909</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3426,13 +3429,13 @@
         <v>217</v>
       </c>
       <c r="D131">
-        <v>0.3276892857142857</v>
+        <v>0.3124107142857143</v>
       </c>
       <c r="E131">
-        <v>0.8278244080145719</v>
+        <v>0.8497798165137614</v>
       </c>
       <c r="F131">
-        <v>0.1191640041554835</v>
+        <v>0.1549128430072667</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3443,13 +3446,13 @@
         <v>217</v>
       </c>
       <c r="D132">
-        <v>0.3278528273809524</v>
+        <v>0.316547619047619</v>
       </c>
       <c r="E132">
-        <v>0.8278244080145719</v>
+        <v>0.8473800738007379</v>
       </c>
       <c r="F132">
-        <v>0.1190481427534466</v>
+        <v>0.1529219324687011</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3460,13 +3463,13 @@
         <v>217</v>
       </c>
       <c r="D133">
-        <v>0.3317315476190476</v>
+        <v>0.3172172619047619</v>
       </c>
       <c r="E133">
-        <v>0.8278244080145719</v>
+        <v>0.8473800738007379</v>
       </c>
       <c r="F133">
-        <v>0.1169620161828186</v>
+        <v>0.1526205398516819</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3477,13 +3480,13 @@
         <v>217</v>
       </c>
       <c r="D134">
-        <v>0.3325171130952381</v>
+        <v>0.3195982142857143</v>
       </c>
       <c r="E134">
-        <v>0.8278244080145719</v>
+        <v>0.8467222222222222</v>
       </c>
       <c r="F134">
-        <v>0.1165032661390255</v>
+        <v>0.1515642512951781</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3491,16 +3494,16 @@
         <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="D135">
-        <v>0.336302380952381</v>
+        <v>0.3219345238095238</v>
       </c>
       <c r="E135">
-        <v>0.8274699443413728</v>
+        <v>0.8453803339517625</v>
       </c>
       <c r="F135">
-        <v>0.1142086923652881</v>
+        <v>0.1505778030590266</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3511,13 +3514,13 @@
         <v>217</v>
       </c>
       <c r="D136">
-        <v>0.3395389880952381</v>
+        <v>0.3225892857142857</v>
       </c>
       <c r="E136">
-        <v>0.8249648698884757</v>
+        <v>0.8453803339517625</v>
       </c>
       <c r="F136">
-        <v>0.1124351766532068</v>
+        <v>0.1503592424070339</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3528,13 +3531,13 @@
         <v>217</v>
       </c>
       <c r="D137">
-        <v>0.3406357142857143</v>
+        <v>0.3237053571428571</v>
       </c>
       <c r="E137">
-        <v>0.8249648698884757</v>
+        <v>0.8453803339517625</v>
       </c>
       <c r="F137">
-        <v>0.1118112727894728</v>
+        <v>0.1498716282646201</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3542,16 +3545,16 @@
         <v>142</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="D138">
-        <v>0.344352380952381</v>
+        <v>0.3267113095238095</v>
       </c>
       <c r="E138">
-        <v>0.8220100746268656</v>
+        <v>0.8441231343283581</v>
       </c>
       <c r="F138">
-        <v>0.109718154034348</v>
+        <v>0.1487663843418613</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3562,13 +3565,13 @@
         <v>217</v>
       </c>
       <c r="D139">
-        <v>0.345216369047619</v>
+        <v>0.3277380952380952</v>
       </c>
       <c r="E139">
-        <v>0.8220100746268656</v>
+        <v>0.8441231343283581</v>
       </c>
       <c r="F139">
-        <v>0.1091796265570338</v>
+        <v>0.1483658528259427</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3579,13 +3582,13 @@
         <v>217</v>
       </c>
       <c r="D140">
-        <v>0.3461880952380952</v>
+        <v>0.3290922619047619</v>
       </c>
       <c r="E140">
-        <v>0.8220100746268656</v>
+        <v>0.8441231343283581</v>
       </c>
       <c r="F140">
-        <v>0.1086480630816766</v>
+        <v>0.1478440997082718</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3593,16 +3596,16 @@
         <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="D141">
-        <v>0.3482056547619047</v>
+        <v>0.3293154761904762</v>
       </c>
       <c r="E141">
-        <v>0.8217746716697937</v>
+        <v>0.8441231343283581</v>
       </c>
       <c r="F141">
-        <v>0.1076239084403414</v>
+        <v>0.1477524959119143</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3613,13 +3616,13 @@
         <v>217</v>
       </c>
       <c r="D142">
-        <v>0.350953869047619</v>
+        <v>0.3330505952380952</v>
       </c>
       <c r="E142">
-        <v>0.8198526315789474</v>
+        <v>0.8424624060150376</v>
       </c>
       <c r="F142">
-        <v>0.1059858293523934</v>
+        <v>0.1465133974942499</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3630,13 +3633,13 @@
         <v>217</v>
       </c>
       <c r="D143">
-        <v>0.3512431547619048</v>
+        <v>0.3344494047619048</v>
       </c>
       <c r="E143">
-        <v>0.8198526315789474</v>
+        <v>0.8422787193973635</v>
       </c>
       <c r="F143">
-        <v>0.1057760203552099</v>
+        <v>0.1460225181070237</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3644,16 +3647,16 @@
         <v>148</v>
       </c>
       <c r="B144" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="D144">
-        <v>0.3543979166666666</v>
+        <v>0.3345982142857143</v>
       </c>
       <c r="E144">
-        <v>0.8185771698113208</v>
+        <v>0.8422787193973635</v>
       </c>
       <c r="F144">
-        <v>0.1039877446549325</v>
+        <v>0.1459562613619295</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3664,13 +3667,13 @@
         <v>217</v>
       </c>
       <c r="D145">
-        <v>0.3574686011904762</v>
+        <v>0.3371428571428571</v>
       </c>
       <c r="E145">
-        <v>0.8162293005671077</v>
+        <v>0.8420415879017012</v>
       </c>
       <c r="F145">
-        <v>0.1023365283795358</v>
+        <v>0.1451865124086393</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3681,13 +3684,13 @@
         <v>217</v>
       </c>
       <c r="D146">
-        <v>0.3586671130952381</v>
+        <v>0.3371875</v>
       </c>
       <c r="E146">
-        <v>0.8162293005671077</v>
+        <v>0.8420415879017012</v>
       </c>
       <c r="F146">
-        <v>0.1016403846824001</v>
+        <v>0.1451659075492049</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3698,13 +3701,13 @@
         <v>217</v>
       </c>
       <c r="D147">
-        <v>0.3642349702380953</v>
+        <v>0.3374404761904762</v>
       </c>
       <c r="E147">
-        <v>0.8106952561669829</v>
+        <v>0.8420415879017012</v>
       </c>
       <c r="F147">
-        <v>0.09825384410341896</v>
+        <v>0.1450742879228159</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3715,13 +3718,13 @@
         <v>217</v>
       </c>
       <c r="D148">
-        <v>0.3659040178571429</v>
+        <v>0.3410714285714286</v>
       </c>
       <c r="E148">
-        <v>0.8101064638783271</v>
+        <v>0.8418250950570342</v>
       </c>
       <c r="F148">
-        <v>0.0972720535746245</v>
+        <v>0.1439705753427447</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3732,13 +3735,13 @@
         <v>217</v>
       </c>
       <c r="D149">
-        <v>0.3706732142857143</v>
+        <v>0.3414285714285714</v>
       </c>
       <c r="E149">
-        <v>0.8055407619047621</v>
+        <v>0.8418250950570342</v>
       </c>
       <c r="F149">
-        <v>0.09438725679797394</v>
+        <v>0.1438662650599505</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3746,16 +3749,16 @@
         <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D150">
-        <v>0.3736233630952381</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="E150">
-        <v>0.803293320610687</v>
+        <v>0.8418250950570342</v>
       </c>
       <c r="F150">
-        <v>0.09269423169322839</v>
+        <v>0.1438078322137123</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3766,13 +3769,13 @@
         <v>217</v>
       </c>
       <c r="D151">
-        <v>0.3749133928571429</v>
+        <v>0.3427827380952381</v>
       </c>
       <c r="E151">
-        <v>0.8031720841300192</v>
+        <v>0.8418250950570342</v>
       </c>
       <c r="F151">
-        <v>0.09194703282808836</v>
+        <v>0.1434886352765893</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3783,13 +3786,13 @@
         <v>217</v>
       </c>
       <c r="D152">
-        <v>0.3772683035714286</v>
+        <v>0.3430059523809524</v>
       </c>
       <c r="E152">
-        <v>0.8016777777777777</v>
+        <v>0.8418250950570342</v>
       </c>
       <c r="F152">
-        <v>0.09039383712421603</v>
+        <v>0.143436155100885</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3800,13 +3803,13 @@
         <v>217</v>
       </c>
       <c r="D153">
-        <v>0.3780895833333333</v>
+        <v>0.3456994047619047</v>
       </c>
       <c r="E153">
-        <v>0.8016777777777777</v>
+        <v>0.8418250950570342</v>
       </c>
       <c r="F153">
-        <v>0.08987026386221615</v>
+        <v>0.1426838246862656</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3817,13 +3820,13 @@
         <v>217</v>
       </c>
       <c r="D154">
-        <v>0.3791471726190476</v>
+        <v>0.3479464285714285</v>
       </c>
       <c r="E154">
-        <v>0.8016777777777777</v>
+        <v>0.8418250950570342</v>
       </c>
       <c r="F154">
-        <v>0.08909880997505921</v>
+        <v>0.1420815354570878</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3831,16 +3834,16 @@
         <v>159</v>
       </c>
       <c r="B155" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="D155">
-        <v>0.3830901785714286</v>
+        <v>0.3502232142857143</v>
       </c>
       <c r="E155">
-        <v>0.7987786127167629</v>
+        <v>0.8413294797687861</v>
       </c>
       <c r="F155">
-        <v>0.08675814985582038</v>
+        <v>0.1415201770505889</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3848,16 +3851,16 @@
         <v>160</v>
       </c>
       <c r="B156" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="D156">
-        <v>0.3833</v>
+        <v>0.3552529761904762</v>
       </c>
       <c r="E156">
-        <v>0.7987786127167629</v>
+        <v>0.8364285714285713</v>
       </c>
       <c r="F156">
-        <v>0.0866702780034877</v>
+        <v>0.1401771689339791</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3868,13 +3871,13 @@
         <v>217</v>
       </c>
       <c r="D157">
-        <v>0.3887145833333333</v>
+        <v>0.3557142857142857</v>
       </c>
       <c r="E157">
-        <v>0.7945557059961315</v>
+        <v>0.8364285714285713</v>
       </c>
       <c r="F157">
-        <v>0.08321534308552242</v>
+        <v>0.1400340450841159</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3885,13 +3888,13 @@
         <v>217</v>
       </c>
       <c r="D158">
-        <v>0.3891688988095238</v>
+        <v>0.3563392857142857</v>
       </c>
       <c r="E158">
-        <v>0.7945557059961315</v>
+        <v>0.8364285714285713</v>
       </c>
       <c r="F158">
-        <v>0.08295945402296517</v>
+        <v>0.1398717914439361</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3899,16 +3902,16 @@
         <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="D159">
-        <v>0.3896647321428571</v>
+        <v>0.3564880952380952</v>
       </c>
       <c r="E159">
-        <v>0.7945557059961315</v>
+        <v>0.8364285714285713</v>
       </c>
       <c r="F159">
-        <v>0.0826825003916855</v>
+        <v>0.139832965634781</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3919,13 +3922,13 @@
         <v>217</v>
       </c>
       <c r="D160">
-        <v>0.3910979166666667</v>
+        <v>0.3566369047619047</v>
       </c>
       <c r="E160">
-        <v>0.7945557059961315</v>
+        <v>0.8364285714285713</v>
       </c>
       <c r="F160">
-        <v>0.08168165392388009</v>
+        <v>0.1397832186630144</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3933,16 +3936,16 @@
         <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="D161">
-        <v>0.3964444940476191</v>
+        <v>0.3567410714285714</v>
       </c>
       <c r="E161">
-        <v>0.7906335282651074</v>
+        <v>0.8364285714285713</v>
       </c>
       <c r="F161">
-        <v>0.07820618870057733</v>
+        <v>0.1397222090273214</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3950,16 +3953,16 @@
         <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="D162">
-        <v>0.3966910714285714</v>
+        <v>0.3602232142857143</v>
       </c>
       <c r="E162">
-        <v>0.7906335282651074</v>
+        <v>0.8364285714285713</v>
       </c>
       <c r="F162">
-        <v>0.07802707912011306</v>
+        <v>0.1389380905065021</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3970,13 +3973,13 @@
         <v>217</v>
       </c>
       <c r="D163">
-        <v>0.4009860119047619</v>
+        <v>0.3622767857142857</v>
       </c>
       <c r="E163">
-        <v>0.7877483365949119</v>
+        <v>0.8364285714285713</v>
       </c>
       <c r="F163">
-        <v>0.07535734216217617</v>
+        <v>0.1384800621668162</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3984,16 +3987,16 @@
         <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="D164">
-        <v>0.4010553571428571</v>
+        <v>0.3624107142857143</v>
       </c>
       <c r="E164">
-        <v>0.7877483365949119</v>
+        <v>0.8364285714285713</v>
       </c>
       <c r="F164">
-        <v>0.07527160397070091</v>
+        <v>0.1384449233670239</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4004,13 +4007,13 @@
         <v>217</v>
       </c>
       <c r="D165">
-        <v>0.4011110119047619</v>
+        <v>0.3654910714285714</v>
       </c>
       <c r="E165">
-        <v>0.7877483365949119</v>
+        <v>0.8364285714285713</v>
       </c>
       <c r="F165">
-        <v>0.07525905367668989</v>
+        <v>0.1376987701521878</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4021,13 +4024,13 @@
         <v>217</v>
       </c>
       <c r="D166">
-        <v>0.4041720238095238</v>
+        <v>0.3674107142857143</v>
       </c>
       <c r="E166">
-        <v>0.7877483365949119</v>
+        <v>0.8364285714285713</v>
       </c>
       <c r="F166">
-        <v>0.07325169045767607</v>
+        <v>0.1372468316045496</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4035,16 +4038,16 @@
         <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="D167">
-        <v>0.4051318452380953</v>
+        <v>0.3679315476190476</v>
       </c>
       <c r="E167">
-        <v>0.7877483365949119</v>
+        <v>0.8364285714285713</v>
       </c>
       <c r="F167">
-        <v>0.07268448100171515</v>
+        <v>0.1371083971400729</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4052,16 +4055,16 @@
         <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="D168">
-        <v>0.4059096726190477</v>
+        <v>0.3773809523809524</v>
       </c>
       <c r="E168">
-        <v>0.7877483365949119</v>
+        <v>0.8268774703557312</v>
       </c>
       <c r="F168">
-        <v>0.07219864512393034</v>
+        <v>0.135005377618053</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4072,13 +4075,13 @@
         <v>217</v>
       </c>
       <c r="D169">
-        <v>0.406121875</v>
+        <v>0.3792708333333333</v>
       </c>
       <c r="E169">
-        <v>0.7877483365949119</v>
+        <v>0.826</v>
       </c>
       <c r="F169">
-        <v>0.07204260358698503</v>
+        <v>0.1346520159986937</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4089,13 +4092,13 @@
         <v>217</v>
       </c>
       <c r="D170">
-        <v>0.407618005952381</v>
+        <v>0.3792708333333333</v>
       </c>
       <c r="E170">
-        <v>0.7877483365949119</v>
+        <v>0.826</v>
       </c>
       <c r="F170">
-        <v>0.07088627778314445</v>
+        <v>0.1346491398947788</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4106,13 +4109,13 @@
         <v>217</v>
       </c>
       <c r="D171">
-        <v>0.4081190476190476</v>
+        <v>0.3807738095238095</v>
       </c>
       <c r="E171">
-        <v>0.7877483365949119</v>
+        <v>0.826</v>
       </c>
       <c r="F171">
-        <v>0.07058107363554274</v>
+        <v>0.1344357653200738</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4120,16 +4123,16 @@
         <v>176</v>
       </c>
       <c r="B172" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="D172">
-        <v>0.4141872023809524</v>
+        <v>0.381889880952381</v>
       </c>
       <c r="E172">
-        <v>0.7841974103585657</v>
+        <v>0.826</v>
       </c>
       <c r="F172">
-        <v>0.06679159517148668</v>
+        <v>0.1342737797185231</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4140,13 +4143,13 @@
         <v>217</v>
       </c>
       <c r="D173">
-        <v>0.4156622023809524</v>
+        <v>0.3837946428571429</v>
       </c>
       <c r="E173">
-        <v>0.7837832335329341</v>
+        <v>0.826</v>
       </c>
       <c r="F173">
-        <v>0.06584165354219812</v>
+        <v>0.133877752594002</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4157,13 +4160,13 @@
         <v>217</v>
       </c>
       <c r="D174">
-        <v>0.4208470238095238</v>
+        <v>0.3840327380952381</v>
       </c>
       <c r="E174">
-        <v>0.7783846</v>
+        <v>0.826</v>
       </c>
       <c r="F174">
-        <v>0.06249375949095121</v>
+        <v>0.1338220487103318</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4171,33 +4174,30 @@
         <v>179</v>
       </c>
       <c r="B175" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="D175">
-        <v>0.4219891369047619</v>
+        <v>0.385625</v>
       </c>
       <c r="E175">
-        <v>0.7783846</v>
+        <v>0.826</v>
       </c>
       <c r="F175">
-        <v>0.06178168013872225</v>
+        <v>0.1334808709010365</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B176" t="s">
-        <v>217</v>
-      </c>
       <c r="D176">
-        <v>0.4247404761904762</v>
+        <v>0.385625</v>
       </c>
       <c r="E176">
-        <v>0.7762548192771085</v>
+        <v>0.826</v>
       </c>
       <c r="F176">
-        <v>0.06001371796904587</v>
+        <v>0.1334787682587678</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4205,16 +4205,16 @@
         <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="D177">
-        <v>0.4269683035714286</v>
+        <v>0.3895982142857143</v>
       </c>
       <c r="E177">
-        <v>0.7748040241448692</v>
+        <v>0.8253319919517103</v>
       </c>
       <c r="F177">
-        <v>0.05862881159181984</v>
+        <v>0.1325500190540709</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4225,13 +4225,13 @@
         <v>217</v>
       </c>
       <c r="D178">
-        <v>0.4294738095238096</v>
+        <v>0.3924553571428571</v>
       </c>
       <c r="E178">
-        <v>0.7729711693548387</v>
+        <v>0.8231249999999999</v>
       </c>
       <c r="F178">
-        <v>0.05699953337736163</v>
+        <v>0.1320428237275143</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4242,13 +4242,13 @@
         <v>217</v>
       </c>
       <c r="D179">
-        <v>0.4295738095238095</v>
+        <v>0.3934672619047619</v>
       </c>
       <c r="E179">
-        <v>0.7729711693548387</v>
+        <v>0.8231249999999999</v>
       </c>
       <c r="F179">
-        <v>0.05693077259720386</v>
+        <v>0.1317585156248123</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4259,13 +4259,13 @@
         <v>217</v>
       </c>
       <c r="D180">
-        <v>0.430236755952381</v>
+        <v>0.3955952380952381</v>
       </c>
       <c r="E180">
-        <v>0.7729711693548387</v>
+        <v>0.8221862348178137</v>
       </c>
       <c r="F180">
-        <v>0.05653301338095965</v>
+        <v>0.131229253966238</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4276,13 +4276,13 @@
         <v>217</v>
       </c>
       <c r="D181">
-        <v>0.4350572916666667</v>
+        <v>0.3963244047619048</v>
       </c>
       <c r="E181">
-        <v>0.7700643002028399</v>
+        <v>0.8221862348178137</v>
       </c>
       <c r="F181">
-        <v>0.05355134011410161</v>
+        <v>0.1310343683341437</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4290,16 +4290,16 @@
         <v>186</v>
       </c>
       <c r="B182" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="D182">
-        <v>0.4372813988095238</v>
+        <v>0.3980952380952381</v>
       </c>
       <c r="E182">
-        <v>0.7685926829268293</v>
+        <v>0.8221138211382115</v>
       </c>
       <c r="F182">
-        <v>0.05196135567303975</v>
+        <v>0.130624894359869</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4310,13 +4310,13 @@
         <v>217</v>
       </c>
       <c r="D183">
-        <v>0.4381297619047619</v>
+        <v>0.3987946428571428</v>
       </c>
       <c r="E183">
-        <v>0.7685926829268293</v>
+        <v>0.8221138211382115</v>
       </c>
       <c r="F183">
-        <v>0.05144307366916821</v>
+        <v>0.1304546667298088</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4327,13 +4327,13 @@
         <v>217</v>
       </c>
       <c r="D184">
-        <v>0.4400877976190476</v>
+        <v>0.4033184523809524</v>
       </c>
       <c r="E184">
-        <v>0.7678800000000001</v>
+        <v>0.8183061224489796</v>
       </c>
       <c r="F184">
-        <v>0.0502004301317911</v>
+        <v>0.1293578825700787</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4344,13 +4344,13 @@
         <v>217</v>
       </c>
       <c r="D185">
-        <v>0.4441657738095238</v>
+        <v>0.4075297619047619</v>
       </c>
       <c r="E185">
-        <v>0.7638476482617588</v>
+        <v>0.8141922290388549</v>
       </c>
       <c r="F185">
-        <v>0.04744851546936443</v>
+        <v>0.1279276422067575</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4361,13 +4361,13 @@
         <v>217</v>
       </c>
       <c r="D186">
-        <v>0.444188244047619</v>
+        <v>0.4083630952380952</v>
       </c>
       <c r="E186">
-        <v>0.7638476482617588</v>
+        <v>0.8141922290388549</v>
       </c>
       <c r="F186">
-        <v>0.04744059005898706</v>
+        <v>0.1276000088606915</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4375,16 +4375,16 @@
         <v>191</v>
       </c>
       <c r="B187" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="D187">
-        <v>0.4468919642857143</v>
+        <v>0.4106696428571429</v>
       </c>
       <c r="E187">
-        <v>0.7632258726899384</v>
+        <v>0.8132032854209447</v>
       </c>
       <c r="F187">
-        <v>0.04558719617079923</v>
+        <v>0.1266664524183092</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4392,16 +4392,16 @@
         <v>192</v>
       </c>
       <c r="B188" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="D188">
-        <v>0.4488474702380952</v>
+        <v>0.4253422619047619</v>
       </c>
       <c r="E188">
-        <v>0.7620903292181069</v>
+        <v>0.7945884773662552</v>
       </c>
       <c r="F188">
-        <v>0.04430776725979717</v>
+        <v>0.1184826386670677</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4409,16 +4409,16 @@
         <v>193</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="D189">
-        <v>0.450946130952381</v>
+        <v>0.4253571428571429</v>
       </c>
       <c r="E189">
-        <v>0.7607523711340206</v>
+        <v>0.7945884773662552</v>
       </c>
       <c r="F189">
-        <v>0.04283925972852973</v>
+        <v>0.1184613394385455</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4426,16 +4426,16 @@
         <v>194</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="D190">
-        <v>0.4541217261904762</v>
+        <v>0.425625</v>
       </c>
       <c r="E190">
-        <v>0.7579181818181818</v>
+        <v>0.7945884773662552</v>
       </c>
       <c r="F190">
-        <v>0.0406128096994886</v>
+        <v>0.1182115569681294</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4443,16 +4443,16 @@
         <v>195</v>
       </c>
       <c r="B191" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D191">
-        <v>0.4544345238095238</v>
+        <v>0.4261458333333333</v>
       </c>
       <c r="E191">
-        <v>0.7579181818181818</v>
+        <v>0.7945884773662552</v>
       </c>
       <c r="F191">
-        <v>0.04039410074632722</v>
+        <v>0.1177896168818074</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4460,16 +4460,16 @@
         <v>196</v>
       </c>
       <c r="B192" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="D192">
-        <v>0.4603953869047619</v>
+        <v>0.4269047619047619</v>
       </c>
       <c r="E192">
-        <v>0.7523126556016598</v>
+        <v>0.7945884773662552</v>
       </c>
       <c r="F192">
-        <v>0.03608561269771142</v>
+        <v>0.1171511417921928</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4480,13 +4480,13 @@
         <v>217</v>
       </c>
       <c r="D193">
-        <v>0.4609040178571429</v>
+        <v>0.4291964285714286</v>
       </c>
       <c r="E193">
-        <v>0.7523126556016598</v>
+        <v>0.7945884773662552</v>
       </c>
       <c r="F193">
-        <v>0.03557296598783519</v>
+        <v>0.1155352018962026</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4497,13 +4497,13 @@
         <v>217</v>
       </c>
       <c r="D194">
-        <v>0.4612415178571429</v>
+        <v>0.4376041666666667</v>
       </c>
       <c r="E194">
-        <v>0.7523126556016598</v>
+        <v>0.7873541666666666</v>
       </c>
       <c r="F194">
-        <v>0.03531959969541332</v>
+        <v>0.1100179946493328</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4514,13 +4514,13 @@
         <v>217</v>
       </c>
       <c r="D195">
-        <v>0.4623340773809524</v>
+        <v>0.4465178571428571</v>
       </c>
       <c r="E195">
-        <v>0.7523126556016598</v>
+        <v>0.7764926931106471</v>
       </c>
       <c r="F195">
-        <v>0.03440515459971848</v>
+        <v>0.1037712615756448</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4528,16 +4528,16 @@
         <v>200</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="D196">
-        <v>0.4638110119047619</v>
+        <v>0.4574851190476191</v>
       </c>
       <c r="E196">
-        <v>0.7523126556016598</v>
+        <v>0.7626987447698745</v>
       </c>
       <c r="F196">
-        <v>0.03333882165696198</v>
+        <v>0.09772413520910528</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4545,16 +4545,16 @@
         <v>201</v>
       </c>
       <c r="B197" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="D197">
-        <v>0.4651538690476191</v>
+        <v>0.4583482142857143</v>
       </c>
       <c r="E197">
-        <v>0.7523126556016598</v>
+        <v>0.7626987447698745</v>
       </c>
       <c r="F197">
-        <v>0.03245157115298421</v>
+        <v>0.09733233866546462</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4562,16 +4562,16 @@
         <v>202</v>
       </c>
       <c r="B198" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="D198">
-        <v>0.4653221726190476</v>
+        <v>0.4589136904761905</v>
       </c>
       <c r="E198">
-        <v>0.7523126556016598</v>
+        <v>0.7626987447698745</v>
       </c>
       <c r="F198">
-        <v>0.03233929117739753</v>
+        <v>0.09708481226764258</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4579,16 +4579,16 @@
         <v>203</v>
       </c>
       <c r="B199" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="D199">
-        <v>0.4671282738095238</v>
+        <v>0.4630357142857143</v>
       </c>
       <c r="E199">
-        <v>0.7523126556016598</v>
+        <v>0.7596631578947367</v>
       </c>
       <c r="F199">
-        <v>0.03090786483629172</v>
+        <v>0.09502444684457327</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4599,13 +4599,13 @@
         <v>217</v>
       </c>
       <c r="D200">
-        <v>0.4757181547619048</v>
+        <v>0.466264880952381</v>
       </c>
       <c r="E200">
-        <v>0.7432871308016876</v>
+        <v>0.7566877637130801</v>
       </c>
       <c r="F200">
-        <v>0.02423646044779626</v>
+        <v>0.09298188907946239</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4616,13 +4616,13 @@
         <v>217</v>
       </c>
       <c r="D201">
-        <v>0.4812964285714286</v>
+        <v>0.4713690476190476</v>
       </c>
       <c r="E201">
-        <v>0.7369331923890062</v>
+        <v>0.7510359408033825</v>
       </c>
       <c r="F201">
-        <v>0.01963791263160303</v>
+        <v>0.08962158280143527</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4630,16 +4630,16 @@
         <v>206</v>
       </c>
       <c r="B202" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="D202">
-        <v>0.4835556547619048</v>
+        <v>0.4816666666666667</v>
       </c>
       <c r="E202">
-        <v>0.7352771186440679</v>
+        <v>0.7379661016949153</v>
       </c>
       <c r="F202">
-        <v>0.01790541383447209</v>
+        <v>0.07948472683582218</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4650,13 +4650,13 @@
         <v>217</v>
       </c>
       <c r="D203">
-        <v>0.4865867559523809</v>
+        <v>0.4848809523809524</v>
       </c>
       <c r="E203">
-        <v>0.7325133757961784</v>
+        <v>0.7349469214437367</v>
       </c>
       <c r="F203">
-        <v>0.0155595976392328</v>
+        <v>0.07532546701393023</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4667,13 +4667,13 @@
         <v>217</v>
       </c>
       <c r="D204">
-        <v>0.4870412202380953</v>
+        <v>0.4889136904761905</v>
       </c>
       <c r="E204">
-        <v>0.7325133757961784</v>
+        <v>0.7307446808510638</v>
       </c>
       <c r="F204">
-        <v>0.0152886215496505</v>
+        <v>0.07070019757975632</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4684,13 +4684,13 @@
         <v>217</v>
       </c>
       <c r="D205">
-        <v>0.4872614583333333</v>
+        <v>0.4913839285714286</v>
       </c>
       <c r="E205">
-        <v>0.7325133757961784</v>
+        <v>0.7287633262260129</v>
       </c>
       <c r="F205">
-        <v>0.01504562440952057</v>
+        <v>0.06819775435643559</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4698,16 +4698,16 @@
         <v>210</v>
       </c>
       <c r="B206" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D206">
-        <v>0.4893837797619048</v>
+        <v>0.496889880952381</v>
       </c>
       <c r="E206">
-        <v>0.7325133757961784</v>
+        <v>0.7224145299145299</v>
       </c>
       <c r="F206">
-        <v>0.0133901087378993</v>
+        <v>0.06237097981685549</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4715,16 +4715,16 @@
         <v>211</v>
       </c>
       <c r="B207" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="D207">
-        <v>0.4955190476190477</v>
+        <v>0.498422619047619</v>
       </c>
       <c r="E207">
-        <v>0.7259355460385439</v>
+        <v>0.7217558886509635</v>
       </c>
       <c r="F207">
-        <v>0.008577472129239575</v>
+        <v>0.06076089858949001</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4735,13 +4735,13 @@
         <v>217</v>
       </c>
       <c r="D208">
-        <v>0.4965191964285714</v>
+        <v>0.4969047619047619</v>
       </c>
       <c r="E208">
-        <v>0.7259355460385439</v>
+        <v>0.7165665236051503</v>
       </c>
       <c r="F208">
-        <v>0.007797285769397322</v>
+        <v>0.05583586956478596</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4749,16 +4749,16 @@
         <v>213</v>
       </c>
       <c r="B209" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="D209">
-        <v>0.4971909226190476</v>
+        <v>0.493110119047619</v>
       </c>
       <c r="E209">
-        <v>0.7259355460385439</v>
+        <v>0.7126236559139785</v>
       </c>
       <c r="F209">
-        <v>0.007305695402335389</v>
+        <v>0.05179268172535318</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4769,13 +4769,13 @@
         <v>217</v>
       </c>
       <c r="D210">
-        <v>0.4980778273809524</v>
+        <v>0.4911458333333333</v>
       </c>
       <c r="E210">
-        <v>0.7213540948275862</v>
+        <v>0.7113146551724138</v>
       </c>
       <c r="F210">
-        <v>0.003971162867379056</v>
+        <v>0.04978996912889014</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4783,16 +4783,16 @@
         <v>215</v>
       </c>
       <c r="B211" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="D211">
-        <v>0.4969568452380953</v>
+        <v>0.4905208333333334</v>
       </c>
       <c r="E211">
-        <v>0.7212850971922247</v>
+        <v>0.7113146551724138</v>
       </c>
       <c r="F211">
-        <v>0.003020114503167756</v>
+        <v>0.0491150679295911</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4803,13 +4803,13 @@
         <v>217</v>
       </c>
       <c r="D212">
-        <v>0.4963870535714286</v>
+        <v>0.4894196428571429</v>
       </c>
       <c r="E212">
-        <v>0.7212850971922247</v>
+        <v>0.7113146551724138</v>
       </c>
       <c r="F212">
-        <v>0.002660515570607933</v>
+        <v>0.04751934001566498</v>
       </c>
     </row>
   </sheetData>
